--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022 AMP 08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D35AE2-0A0E-44C0-958D-9AC1A7203CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9253186-DD57-42D7-95C0-825BED8F5CCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -18,37 +18,29 @@
     <sheet name="Resumen Por Insumo" sheetId="18" r:id="rId3"/>
     <sheet name="RESUMEN GENERAL" sheetId="15" r:id="rId4"/>
     <sheet name="ESTADO" sheetId="11" r:id="rId5"/>
-    <sheet name="Presupuesto" sheetId="20" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'RESUMEN GENERAL'!$A$1:$B$558</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Resumen Por Insumo'!$A$1:$B$262</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
-    <pivotCache cacheId="12" r:id="rId8"/>
-    <pivotCache cacheId="24" r:id="rId9"/>
-    <pivotCache cacheId="39" r:id="rId10"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="28" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>ITEM</t>
   </si>
@@ -146,12 +138,6 @@
     <t>MOBILIARIO PARA COMEDOR Y COCINA</t>
   </si>
   <si>
-    <t>EQUIPAMIENTO PARA COMEDOR MULTIUSO</t>
-  </si>
-  <si>
-    <t>COCINA INDUSTRIAL DE ACERO INOX</t>
-  </si>
-  <si>
     <t>UTENSILIOS DE COCINA</t>
   </si>
   <si>
@@ -164,29 +150,26 @@
     <t>PUERTAS BAJAS PARA LABORATORIOS</t>
   </si>
   <si>
-    <t>mixer</t>
+    <t>EETT</t>
   </si>
   <si>
-    <t>cables</t>
+    <t>EQUIPAMIENTO PARA AMBIENTES MULTIUSO</t>
   </si>
   <si>
-    <t>proyector</t>
+    <t>EQUIPAMIENTO PARA SOPORTE DE IMAGEN</t>
   </si>
   <si>
-    <t xml:space="preserve"> j8</t>
+    <t xml:space="preserve"> COCINA INDUSTRIAL DE ACERO INOX</t>
   </si>
   <si>
-    <t>prestige</t>
-  </si>
-  <si>
-    <t>EETT</t>
+    <t>PRESUPUESTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,370 +288,12 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1294,9 +927,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="44830.759007175926" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{03624561-1F2C-42FF-A8ED-2B56530DDA5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44833.772095370368" createdVersion="7" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{03624561-1F2C-42FF-A8ED-2B56530DDA5B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:O9" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:O10" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Area" numFmtId="0">
@@ -1319,12 +952,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ITEM" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems count="167">
-        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO"/>
-        <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
+      <sharedItems count="170">
+        <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
+        <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
+        <s v=" COCINA INDUSTRIAL DE ACERO INOX"/>
         <s v="UTENSILIOS DE COCINA"/>
         <s v="ESTANTERÍA PARA COCINA"/>
         <s v="ESTANTERÍA PARA COCINA DE COMEDOR"/>
@@ -1372,6 +1006,7 @@
         <s v="CONSOLA DE MEZCLA DIGITAL DE 40 ENTRADAS" u="1"/>
         <s v="Mesa de reuniones" u="1"/>
         <s v="Mesa 0.50x0.60 Segun Grado" u="1"/>
+        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO" u="1"/>
         <s v="lira" u="1"/>
         <s v="Divisora 0.45x0.55" u="1"/>
         <s v="LOCKERS TIPO II (83CM) M3-03_x0009_" u="1"/>
@@ -1407,6 +1042,7 @@
         <s v="Platos de color" u="1"/>
         <s v="Escritorio 1.50x0.60" u="1"/>
         <s v="Impresora multifuncional" u="1"/>
+        <s v="COCINA INDUSTRIAL DE ACERO INOX" u="1"/>
         <s v="Mesa central" u="1"/>
         <s v="Jabalina 500 G." u="1"/>
         <s v="Luces tipo Tachos " u="1"/>
@@ -1502,10 +1138,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="360" maxValue="42900"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5200" maxValue="42900"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="42900"/>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Obs" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -1526,9 +1162,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="44830.759129282407" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{7721415F-9AAE-4232-91A8-63A5D097C3AE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44833.776362731478" createdVersion="7" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{7721415F-9AAE-4232-91A8-63A5D097C3AE}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L9" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:L10" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Area" numFmtId="0">
@@ -1555,12 +1191,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ITEM" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems count="167">
-        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO"/>
-        <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
+      <sharedItems count="170">
+        <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
+        <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
+        <s v=" COCINA INDUSTRIAL DE ACERO INOX"/>
         <s v="UTENSILIOS DE COCINA"/>
         <s v="ESTANTERÍA PARA COCINA"/>
         <s v="ESTANTERÍA PARA COCINA DE COMEDOR"/>
@@ -1607,6 +1244,7 @@
         <s v="CONSOLA DE MEZCLA DIGITAL DE 40 ENTRADAS" u="1"/>
         <s v="Mesa de reuniones" u="1"/>
         <s v="Mesa 0.50x0.60 Segun Grado" u="1"/>
+        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO" u="1"/>
         <s v="lira" u="1"/>
         <s v="Divisora 0.45x0.55" u="1"/>
         <s v="LOCKERS TIPO II (83CM) M3-03_x0009_" u="1"/>
@@ -1642,6 +1280,7 @@
         <s v="Platos de color" u="1"/>
         <s v="Escritorio 1.50x0.60" u="1"/>
         <s v="Impresora multifuncional" u="1"/>
+        <s v="COCINA INDUSTRIAL DE ACERO INOX" u="1"/>
         <s v="Mesa central" u="1"/>
         <s v="Jabalina 500 G." u="1"/>
         <s v="Luces tipo Tachos " u="1"/>
@@ -1738,10 +1377,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="360" maxValue="42900"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5200" maxValue="42900"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="42900"/>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1753,9 +1392,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="44830.759448263889" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{17C455E3-903D-4D33-8F01-31B60ECDF4D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44833.776414236112" createdVersion="7" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{17C455E3-903D-4D33-8F01-31B60ECDF4D7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L9" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:L10" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Area" numFmtId="0">
@@ -1785,398 +1424,401 @@
         <s v="EQUIPAMIENTO PARA COMEDOR Y COCINA"/>
         <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
         <m u="1"/>
-        <s v="ENFERMERIA – PRIMARIA" u="1"/>
+        <s v="MOBILIARIO -COMEDOR - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - EDUCACION FISICA - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE DOCENTES - PRIMARIA" u="1"/>
         <s v="MOBILIARIO DE AULAS PEDAGOGICAS - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - ARCHIVO - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO SUM - PRIMARIA" u="1"/>
+        <s v="COSTOS DE BIBLIOTECA – PRIMARIA" u="1"/>
+        <s v="COSTOS DE ENFERMERIA – PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO COMEDOR - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO TUTORIA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - TALLER DE REPOSTERIA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - CTO DE BOMBAS - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - PRIMARIA" u="1"/>
+        <s v="COCINA - PRIMARIA" u="1"/>
+        <s v="EDUCACION FISICA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO LABORATORIO - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - DIRECCION - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - VESTUARIO - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO SUM - SECUNDARIA" u="1"/>
+        <s v="BIBLIOTECA – PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - BIBLIOTECA - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - ENFERMERIA - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - GUARDIANIA - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - PSICOLOGIA - PRIMARIA" u="1"/>
+        <s v="LABORATORIO – PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - TIENDA ESCOLAR -" u="1"/>
         <s v="MOBILIARIO - ARCHIVO - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - TUTORIA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - VESTUARIO SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO SALA DE DOCENTES - SECUNDARIA" u="1"/>
+        <s v="LABORATORIO – SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - SECUNDARIA" u="1"/>
+        <s v="ENFERMERIA – SECUNDARIA" u="1"/>
+        <s v="EDUCACION FISICA - PRIMARIA" u="1"/>
         <s v="MOBILIARIO - AULA DE INNOVACION PEDAGOGICA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE REUNIONES - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - DIRECCION - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - VESTUARIO - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - LABORATORIO - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - APAFA - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO SALA DE ESPERA - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO SALA MONITOREO - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO TALLER DE ARTE - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO TIENDA ESCOLAR - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO SUM - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - SUM - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO BIBLIOTECA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO REPOSTERIA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO SECRETARIA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - TALLER DE MANUALIDADES - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO LABORATORIO - PRIMARIA" u="1"/>
         <s v="COSTOS DE LABORATORIO – SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO DE AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO DIRECCION - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE ESPERA - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - TALLER DE ARTE - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - DEPOSITO - SUM" u="1"/>
+        <s v="ENFERMERIA – PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - ARCHIVO - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE MONITOREO" u="1"/>
         <s v="MOBILIARIO - BIBLIOTECA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - CTO BOMBAS - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - ENFERMERIA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - GUARDIANIA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - MAESTRANZA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - SECRETARIA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - ALMACEN CENTRAL" u="1"/>
-        <s v="COSTOS DE BIBLIOTECA – PRIMARIA" u="1"/>
-        <s v="COSTOS DE ENFERMERIA – PRIMARIA" u="1"/>
-        <s v="ENFERMERIA – SECUNDARIA" u="1"/>
-        <s v="COSTOS DE BIBLIOTECA – SECUNDARIA" u="1"/>
-        <s v="COSTOS DE ENFERMERIA – SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - COORDINACION ADMINISTRATIVA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE ESPERA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - TALLER DE ARTE - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO COMEDOR - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO TUTORIA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - APAFA - SECUNDARIA" u="1"/>
+        <s v="COSTOS DE LABORATORIO – PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - LABORATORIO - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO COORDINACION PEDAGOGICA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - MEZZANINE - SUM - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - AULA DE INNOVACION PEDAGOGICA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO SALA DE DOCENTES - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - SALA DE SONIDO - SUM -SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO DE AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
-        <s v="COCINA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - LABORATORIO - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - LABORATORIO - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - PRIMARIA" u="1"/>
-        <s v="BIBLIOTECA – PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO DIRECCION - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO BIBLIOTECA - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO REPOSTERIA - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO SECRETARIA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - SUM - SECUNDARIA" u="1"/>
-        <s v="EDUCACION FISICA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - DIRECCION - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - ECONOMATO - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO -PSICOLOGIA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - AULA DE INNOVACION PEDAGOGICA - SECUNDARIA" u="1"/>
-        <s v="COSTOS DE LABORATORIO – PRIMARIA" u="1"/>
+        <s v="INSTRUMENTOS MUSICALES" u="1"/>
+        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - COORDINACION PEDAGOGICA - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
+        <s v="COSTOS DE BIBLIOTECA – SECUNDARIA" u="1"/>
+        <s v="COSTOS DE ENFERMERIA – SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO SALA DE SONIDO - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO TALLER DE ARTE - SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO COORDINACION ADMINISTRATIVA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - EDUCACION FISICA - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE DOCENTES - SECUNDARIA" u="1"/>
+        <s v="COSTOS DE INSTRUMENTOS MUSICALES" u="1"/>
+        <s v="MOBILIARIO - ALMACEN CENTRAL" u="1"/>
+        <s v="EQUIPAMIENTO SUB DIRECCION - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - COCINA - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO SALA DE DOCENTES - PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE REUNIONES - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO BIBLIOTECA PRIMARIA" u="1"/>
+        <s v="MOBILIARIO - AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
+        <s v="MOBILIARIO - SALA DE REUNIONES - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - ALMACEN COCINA - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - TALLER DE ARTE - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO COORDINACION ADMINISTRATIVA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - CTO DE BOMBAS - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO SALA DE ESPERA - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO SALA MONITOREO - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO TALLER DE ARTE - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO TIENDA ESCOLAR - PRIMARIA" u="1"/>
+        <s v="EQUIPAMIENTO DE SEGURIDAD" u="1"/>
+        <s v="MOBILIARIO - COORDINACION ADMINISTRATIVA - SECUNDARIA" u="1"/>
+        <s v="BIBLIOTECA – SECUNDARIA" u="1"/>
+        <s v="EQUIPAMIENTO DIRECCION - PRIMARIA" u="1"/>
         <s v="MOBILIARIO - CAMERINOS SUM - SECUNDARIA" u="1"/>
         <s v="MOBILIARIO - SUB DIRECCION - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO BIBLIOTECA PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO LABORATORIO - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO LABORATORIO - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE REUNIONES - SECUNDARIA" u="1"/>
-        <s v="LABORATORIO – PRIMARIA" u="1"/>
-        <s v="BIBLIOTECA – SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - APAFA - SECUNDARIA" u="1"/>
-        <s v="COSTOS DE INSTRUMENTOS MUSICALES" u="1"/>
-        <s v="EQUIPAMIENTO SUM - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO DIRECCION - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - COORDINACION PEDAGOGICA - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO SALA DE SONIDO - SECUNDARIA" u="1"/>
-        <s v="EQUIPAMIENTO TALLER DE ARTE - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE MONITOREO" u="1"/>
-        <s v="EQUIPAMIENTO SUB DIRECCION - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - TALLER DE MANUALIDADES - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - EDUCACION FISICA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE DOCENTES - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - SECUNDARIA" u="1"/>
-        <s v="INSTRUMENTOS MUSICALES" u="1"/>
-        <s v="MOBILIARIO - MEZZANINE - SUM - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - COCINA - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO DE SEGURIDAD" u="1"/>
-        <s v="MOBILIARIO - TIENDA ESCOLAR -" u="1"/>
-        <s v="EQUIPAMIENTO COORDINACION PEDAGOGICA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - BIBLIOTECA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - ENFERMERIA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - GUARDIANIA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - PSICOLOGIA - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - SECUNDARIA" u="1"/>
-        <s v="EDUCACION FISICA - PRIMARIA" u="1"/>
-        <s v="EQUIPAMIENTO SALA DE DOCENTES - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO - EDUCACION FISICA - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - SALA DE DOCENTES - SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - TALLER DE REPOSTERIA - SECUNDARIA" u="1"/>
-        <s v="LABORATORIO – SECUNDARIA" u="1"/>
-        <s v="MOBILIARIO - DEPOSITO - SUM" u="1"/>
-        <s v="MOBILIARIO - APAFA - PRIMARIA" u="1"/>
-        <s v="MOBILIARIO -COMEDOR - SECUNDARIA" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ITEM" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems containsBlank="1" count="282">
-        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO"/>
-        <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
+      <sharedItems containsBlank="1" count="285">
+        <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
+        <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
+        <s v=" COCINA INDUSTRIAL DE ACERO INOX"/>
         <s v="UTENSILIOS DE COCINA"/>
         <s v="ESTANTERÍA PARA COCINA"/>
         <s v="ESTANTERÍA PARA COCINA DE COMEDOR"/>
         <s v="PUERTAS BAJAS PARA LABORATORIOS"/>
-        <s v="Colchoneta plegable" u="1"/>
-        <s v="Lockers tipo I  M5-03" u="1"/>
+        <m u="1"/>
+        <s v="Estante 1.80x0.50X1.50" u="1"/>
+        <s v="Mesa 2.00x1.20" u="1"/>
+        <s v="Congeladora" u="1"/>
+        <s v="Mesa auxiliar" u="1"/>
+        <s v="Atril de mesa" u="1"/>
+        <s v="TV 82 pulgadas" u="1"/>
+        <s v="Cono semiesfericos" u="1"/>
+        <s v="Mesa para taller" u="1"/>
+        <s v="PC DE ESCRITORIO" u="1"/>
+        <s v="Postes de llegada" u="1"/>
+        <s v="Lockers tipo I  M5-05" u="1"/>
+        <s v="Equipo de sonido Incl. Microfono inalambrico" u="1"/>
+        <s v="Pizarra de acero vitrificado 1.50x1.20" u="1"/>
+        <s v="Mesa grupales  0.90x1.50" u="1"/>
+        <s v="Conos de 5 cm" u="1"/>
+        <s v="Prensa metálica tipo &quot;C&quot; mediano" u="1"/>
+        <s v="Mesa de lectura 1.20x0.80" u="1"/>
+        <s v="Rejilla metálica con asbesto" u="1"/>
+        <s v="Sistema de Audio para SUM Primaria" u="1"/>
+        <s v="Gradilla metálica para pipetas" u="1"/>
+        <s v="Credenza 1.20x0.40x1.80" u="1"/>
+        <s v="Sillas según grupo 0.40x0.40x0.35" u="1"/>
+        <s v="TV 85 pulgadas" u="1"/>
+        <s v="Armario de melamina" u="1"/>
+        <s v="Reloj de una esfera de pared" u="1"/>
+        <s v="Silla giratoria" u="1"/>
+        <s v="Mesa de apoyo topico" u="1"/>
+        <s v="Platos de color" u="1"/>
+        <s v="Mesa de reuniones" u="1"/>
+        <s v="Estante para libros 222x90x180" u="1"/>
+        <s v="Escalera de velocidad " u="1"/>
+        <s v="Mesa central 0.40x0.80" u="1"/>
+        <s v="Embudo de vidrio mediano" u="1"/>
+        <s v="Mesa de trabajo 1.70x0.60" u="1"/>
+        <s v="Horno rotativo industrial" u="1"/>
+        <s v="Estetoscopio pediátrico" u="1"/>
+        <s v="Computadora para escritorio monitor de 20&quot; Incl. UPS" u="1"/>
+        <s v="Conos flexibles  de 40 cm" u="1"/>
+        <s v="Mesa comedor para comedor" u="1"/>
+        <s v="Mesa encargado1.20x0.80" u="1"/>
+        <s v="Servidor de Datos" u="1"/>
+        <s v="Escalinata con dos peldaños" u="1"/>
+        <s v="Antenas voleibol" u="1"/>
+        <s v="Gradilla metálica para tubos de ensayo" u="1"/>
+        <s v="Archivador 0.40x0.40x1.20" u="1"/>
+        <s v="CAJA ACUSTICA AUTOAMPLIFICADA SUB BAJO" u="1"/>
+        <s v="Malla para aro de Básquet (par)" u="1"/>
+        <s v="Estante para libros 222x90x360" u="1"/>
+        <s v="Camilla rodante 0.70x1.80" u="1"/>
+        <s v="Pipeta graduada de vidrio de 2 ml" u="1"/>
+        <s v="PC portatil" u="1"/>
+        <s v="Mesa especial para topico" u="1"/>
+        <s v="Sillon modular 0.60x0.60" u="1"/>
+        <s v="Armario 1.20x0.50x0.70" u="1"/>
+        <s v="Mueble móvil " u="1"/>
+        <s v="Pipeta graduada de vidrio de 5 ml" u="1"/>
+        <s v="PROYECTOR MULTIMEDIA" u="1"/>
+        <s v="Computadora para escritorio monitor" u="1"/>
+        <s v="Tacho de basura" u="1"/>
+        <s v="Embudo de decantación con llave de paso" u="1"/>
+        <s v="Modulo de control DMX" u="1"/>
+        <s v="Mesa para computadora" u="1"/>
+        <s v="Cono semiesferico" u="1"/>
+        <s v="Silla giratoria Tipo II" u="1"/>
+        <s v="Mesa de trabajo tipo I" u="1"/>
         <s v="Fotocopiadora 0.75x0.75" u="1"/>
-        <s v="Matraz Erlenmayer de 250 ml" u="1"/>
-        <s v="LOCKERS TIPO III (56.5 CM) M2-03" u="1"/>
-        <m u="1"/>
-        <s v="KIT DE LABORATORIO" u="1"/>
-        <s v="Prisma salida de carreras" u="1"/>
-        <s v="Armario 1.00x0.60x0.90" u="1"/>
-        <s v="Raqueta de tenis de mesa" u="1"/>
-        <s v="Mesa 0.50x0.60 (3° y 4° grado)" u="1"/>
-        <s v="Armario empotrado (1.84x60x115)" u="1"/>
-        <s v="Cocina industrial con horno incorporado 140x60x90 cm" u="1"/>
-        <s v="Redes voleibol" u="1"/>
-        <s v="Lockers tipo I  M5-05" u="1"/>
-        <s v="Fiola de vidrio de 250 ml" u="1"/>
-        <s v="Mesas de trabajo  2.00x1.00" u="1"/>
-        <s v="Anaquel metalico de 0.65X0.45x2.00" u="1"/>
-        <s v="Mesa 0.50x0.80" u="1"/>
-        <s v="Soporte de red" u="1"/>
-        <s v="PC DE ESCRITORIO" u="1"/>
-        <s v="Banco para laboratorio" u="1"/>
-        <s v="Mesa 0.50x0.60 (5° y 6° grado)" u="1"/>
-        <s v="Gradilla metálica para tubos de ensayo" u="1"/>
-        <s v="Pizarra de acero vitrificado (3.0x1.15)" u="1"/>
-        <s v="Estetoscopio pediátrico" u="1"/>
-        <s v="Mesa de trabajo 1.70x0.60" u="1"/>
-        <s v="Lockers tipo II (83cm) M3-03" u="1"/>
-        <s v="Mesa encargado1.00x0.50x0.70" u="1"/>
-        <s v="lira" u="1"/>
-        <s v="Congeladora 10x0.73" u="1"/>
-        <s v="Banca para camerinos" u="1"/>
-        <s v="Escalera de velocidad " u="1"/>
-        <s v="Mesa grupales" u="1"/>
-        <s v="Mesa de apoyo topico" u="1"/>
-        <s v="Silla 0.45x0.45x0.45 (docente)" u="1"/>
-        <s v="Silla 0.30x0.35 (5° y 6° grado)" u="1"/>
-        <s v="Silla Plegable o apilable pasa SUM" u="1"/>
-        <s v="Divisiones en closet" u="1"/>
-        <s v="Banco de ɸ0.30" u="1"/>
-        <s v="Sogas elasticas" u="1"/>
-        <s v="Mesa especial para topico" u="1"/>
-        <s v="Instrumento Musical de Percusion " u="1"/>
-        <s v="Mesa 1.00x1.00" u="1"/>
-        <s v="Tarola importada" u="1"/>
-        <s v="Extintor ojo tipo" u="1"/>
-        <s v="Bolsa de agua caliente" u="1"/>
-        <s v="Estante 1.20x0.30x1.50" u="1"/>
-        <s v="Anaquel metalico Tipo I" u="1"/>
-        <s v="Conos flexibles de 23 cm" u="1"/>
-        <s v="Microscopios binoculares" u="1"/>
-        <s v="Mesas individuales con tablero rebatible" u="1"/>
-        <s v="Jabalina 400 G." u="1"/>
-        <s v="Mecheros de alcohol" u="1"/>
-        <s v="LOCKERS TIPO I (137CM) M5-03" u="1"/>
-        <s v="Mesa auxiliar 0.90x0.45x0.90" u="1"/>
-        <s v="Armario empotrado para labvoratorio" u="1"/>
-        <s v="Mesa de trabajo tipo II" u="1"/>
-        <s v="Archivador 0.40x0.40x1.20" u="1"/>
-        <s v="Gruesa de pelotitas" u="1"/>
-        <s v="Conos flexibles de 25 cm" u="1"/>
+        <s v="Globo terráqueo" u="1"/>
+        <s v="Probeta graduada de vidrio de 250 ml" u="1"/>
+        <s v="Pinza para base soporte" u="1"/>
         <s v="Martillo de evaluacion medica" u="1"/>
+        <s v="Gruesa de pelotitas (6 UND) para tenis" u="1"/>
+        <s v="Estante para biblioteca del aula 1.60x0.40x1.50" u="1"/>
+        <s v="Péndulo metálico" u="1"/>
+        <s v="Balanza de piso Tallímetro para personas" u="1"/>
+        <s v="Refrigeradora" u="1"/>
+        <s v="Horno microhondas" u="1"/>
+        <s v="Lockers tipo II  M3-03" u="1"/>
+        <s v="Lockers tipo II  M3-04" u="1"/>
+        <s v="Lockers tipo II  M3-05" u="1"/>
+        <s v="Lockers tipo II  M3-06" u="1"/>
+        <s v="TV de 49&quot; Incl. Rack" u="1"/>
         <s v="CAJA REMOTA PARA M32 DE 32 IN 16 OUT" u="1"/>
-        <s v="Mesa central" u="1"/>
-        <s v="luces tipo robot" u="1"/>
-        <s v="campana extractora" u="1"/>
-        <s v="Raqueta de tenia de mesa" u="1"/>
-        <s v="Cocina industrial con horno incorporado" u="1"/>
-        <s v="Mesas de trabajo " u="1"/>
-        <s v="Impresora multifuncional" u="1"/>
-        <s v="Anaquel metalico 0.95x0.45x2.00" u="1"/>
-        <s v="Gruesa de pelotitas (6 UND) para tenis" u="1"/>
-        <s v="Pandereta" u="1"/>
-        <s v="Mesa para profesor" u="1"/>
-        <s v="Horno rotativo industrial" u="1"/>
-        <s v="Gruesa de pelotitas para tenis" u="1"/>
-        <s v="Jabalina 500 G." u="1"/>
-        <s v="Discos de goma 1.00 KG" u="1"/>
-        <s v="Porta CDs de 100 unidades" u="1"/>
-        <s v="Extintor rojo TIPO ABC de 10 Kg" u="1"/>
-        <s v="Platos de color" u="1"/>
-        <s v="Mesas de trabajo" u="1"/>
-        <s v="Extintor TIPO ABC" u="1"/>
-        <s v="Cono deportivo" u="1"/>
-        <s v="Mesa de reuniones" u="1"/>
-        <s v="Armario alto para docente" u="1"/>
-        <s v="Pipeta graduada de vidrio de 5 ml" u="1"/>
-        <s v="Insumos para instalacion de Luces " u="1"/>
-        <s v="Credenza para oficinas administrativas" u="1"/>
-        <s v="Picas de 1.70 m inc/ porta picas (15 und)" u="1"/>
-        <s v="Mesa 0.50x0.60" u="1"/>
-        <s v="Péndulo metálico" u="1"/>
-        <s v="Tapones de jebe bi horadado mediano" u="1"/>
-        <s v="Mesas individuales" u="1"/>
-        <s v="EXTINTOR Co2 DE 10 Lb" u="1"/>
-        <s v="Atril de mesa 0.43 x 0.33" u="1"/>
-        <s v="Conos flexibles  de 40 cm" u="1"/>
-        <s v="Silla 0.30x0.35 (3° y 4° grado)" u="1"/>
-        <s v="Polea metálica simple y doble (3 de c/u)" u="1"/>
-        <s v="Discos de goma 1.50 KG" u="1"/>
-        <s v="Biombo metalico de dos cuerpos" u="1"/>
-        <s v="Mesa de trabajo" u="1"/>
-        <s v="Termometro Digital" u="1"/>
-        <s v="Sillon modular 0.60x0.60" u="1"/>
-        <s v="Estante para libros 222x90x180" u="1"/>
-        <s v="PROYECTOR MULTIMEDIA" u="1"/>
-        <s v="Lockers tipo III  M2-03" u="1"/>
-        <s v="Gradilla metálica para pipetas" u="1"/>
-        <s v="Congeladora" u="1"/>
-        <s v="pedestales set" u="1"/>
-        <s v="Sillas según grupo" u="1"/>
-        <s v="Armario de melamina" u="1"/>
-        <s v="Estante 1.20x0.40x1.50" u="1"/>
-        <s v="Silla giratoria Tipo II" u="1"/>
-        <s v="Matraz Kitasato de 250 ml" u="1"/>
-        <s v="Reloj de una esfera de pared" u="1"/>
-        <s v="Termómetro de mercurio -10a300ºC" u="1"/>
-        <s v="Mesa auxiliar" u="1"/>
-        <s v="Postes Voleibol" u="1"/>
-        <s v="Tableros deportivos" u="1"/>
-        <s v="Plano inclinado metálico" u="1"/>
-        <s v="Peachímetro de cinta x caja" u="1"/>
-        <s v="Pinza metálica para tubo de ensayo" u="1"/>
-        <s v="PC portatil 15&quot;" u="1"/>
-        <s v="Silla giratoria" u="1"/>
-        <s v="Silla de juez Voleibol" u="1"/>
-        <s v="Silla 0.30x0.35 (1° y 2° / 3° y 4° / 5° grado)" u="1"/>
-        <s v="Camara fotografica" u="1"/>
-        <s v="Luces tipo Tachos " u="1"/>
-        <s v="Armario empotrado (1.35x0.40x2.00)" u="1"/>
-        <s v="Tableros para desarrollo de pintura" u="1"/>
-        <s v="Fotocopiadora" u="1"/>
-        <s v="Mesa de tenis" u="1"/>
-        <s v="Tablero de trabajo" u="1"/>
-        <s v="Mesa auxiliar para docente" u="1"/>
-        <s v="TV 85 pulgadas" u="1"/>
-        <s v="Pizarra de acero vitrificado (2.0x1.15)" u="1"/>
-        <s v="Mesa para taller" u="1"/>
-        <s v="Rejilla metálica con asbesto" u="1"/>
-        <s v="Computadora para escritorio monitor" u="1"/>
-        <s v="Butaca de 0.60 x0.60" u="1"/>
-        <s v="Lockers tipo II  M3-03" u="1"/>
-        <s v="Sillon modular 1.20x0.60" u="1"/>
-        <s v="Termómetro de mercurio para laboratorio" u="1"/>
-        <s v="Butaca de SUM" u="1"/>
-        <s v="Mueble móvil " u="1"/>
-        <s v="Pizeta de 250 ml" u="1"/>
-        <s v="Lockers tipo I  M5-04" u="1"/>
-        <s v="Tablero de trabajo 0.60x2.70" u="1"/>
-        <s v="Silla 0.30x0.35 (1° y 2° grado)" u="1"/>
-        <s v="Horno microhondas" u="1"/>
-        <s v="Estante para libros" u="1"/>
-        <s v="Lockers tipo II  M3-04" u="1"/>
-        <s v="Mesa de lectura 1.20x0.80" u="1"/>
-        <s v="PARLANTES ACTIVOS DE 1400W" u="1"/>
-        <s v="Estante para biblioteca del aula" u="1"/>
-        <s v="Silla para Docente" u="1"/>
-        <s v="Mesa central 0.40x0.80" u="1"/>
-        <s v="Credenza 1.20x0.40x1.80" u="1"/>
         <s v="Silla Plegable o apilable para comedor" u="1"/>
         <s v="Lockers tipo I  M5-06" u="1"/>
-        <s v="Lockers tipo II  M3-05" u="1"/>
+        <s v="Platillo cono voleibol" u="1"/>
+        <s v="Cocina electrica de mesa" u="1"/>
+        <s v="LOCKERS TIPO II (83CM) M3-03_x0009_" u="1"/>
+        <s v="Escritorio 1.50x0.60" u="1"/>
+        <s v="Redes voleibol" u="1"/>
+        <s v="Cronómetro digital" u="1"/>
+        <s v="pedestales set" u="1"/>
+        <s v="Mesa de trabajo 3.50x0.60" u="1"/>
+        <s v="Mesa comedor 1.50x0.80" u="1"/>
+        <s v="PARLANTES ACTIVOS DE 1400W" u="1"/>
+        <s v="Material didáctico video digital" u="1"/>
+        <s v="Conos flexibles de 23 cm" u="1"/>
+        <s v="Mesa 0.50x0.60 Segun Grado" u="1"/>
+        <s v="Mesas de trabajo" u="1"/>
+        <s v="Mesa para profesor" u="1"/>
+        <s v="Pieza de precision (3 Und)" u="1"/>
+        <s v="Mesas individuales" u="1"/>
+        <s v="Peachímetro de cinta x caja" u="1"/>
+        <s v="Camara fotografica" u="1"/>
+        <s v="Silla 0.30x0.35 (1° y 2° grado)" u="1"/>
+        <s v="Gruesa de pelotitas (6 UND)" u="1"/>
+        <s v="Tablero de trabajo 0.60x2.70" u="1"/>
+        <s v="Escobilla para probeta" u="1"/>
+        <s v="sistema de extraccion de aire mecanico" u="1"/>
+        <s v="Bajo de viento" u="1"/>
+        <s v="Butaca de SUM" u="1"/>
+        <s v="Mesa 1.00x1.00" u="1"/>
         <s v="Escalera de velocidad  5m" u="1"/>
-        <s v="LOCKERS TIPO II (83CM) M3-03_x0009_" u="1"/>
-        <s v="Estante para libros 222x90x360" u="1"/>
+        <s v="Mesa de trabajo" u="1"/>
+        <s v="Anaquel metalico 0.95x0.45x2.00" u="1"/>
+        <s v="Estante para biblioteca del aula" u="1"/>
+        <s v="Gotero de vidrio" u="1"/>
+        <s v="Tensiómetro aneroide adulto" u="1"/>
+        <s v="Banco de ɸ0.30" u="1"/>
+        <s v="Soporte de red" u="1"/>
+        <s v="Raqueta de tenis de mesa" u="1"/>
+        <s v="Polea metálica simple y doble (3 de c/u)" u="1"/>
+        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO" u="1"/>
+        <s v="Estante para libros" u="1"/>
+        <s v="CONSOLA DE MEZCLA DIGITAL DE 40 ENTRADAS" u="1"/>
+        <s v="LOCKERS TIPO I (137CM) M5-03" u="1"/>
+        <s v="Silla 0.30x0.35 (3° y 4° grado)" u="1"/>
+        <s v="ESTRUCTURA DE SUJETACION" u="1"/>
+        <s v="Bolsa de agua caliente" u="1"/>
         <s v="SISTEMA DE AUDIO PARA ORATORIO" u="1"/>
+        <s v="Pinza metálica para tubo de ensayo" u="1"/>
+        <s v="LOCKERS TIPO III (56.5 CM) M2-03" u="1"/>
+        <s v="Mesa de tenis" u="1"/>
+        <s v="Sillon modular 1.20x0.60" u="1"/>
+        <s v="Lockers tipo II (83cm) M3-03" u="1"/>
+        <s v="Camilla rodante" u="1"/>
+        <s v="Jabalina 500 G." u="1"/>
+        <s v="Extintor TIPO ABC" u="1"/>
+        <s v="Credenza para oficinas administrativas" u="1"/>
+        <s v="Banca para camerinos" u="1"/>
+        <s v="Discos de goma 1.00 KG" u="1"/>
+        <s v="Discos de goma 1.50 KG" u="1"/>
+        <s v="Jabalina 400 G." u="1"/>
+        <s v="Armario 1.00x0.40x1.50" u="1"/>
+        <s v="KIT DE LABORATORIO" u="1"/>
+        <s v="Flauta importada" u="1"/>
+        <s v="Escritorio 0.50x1.00x0.75 (docente)" u="1"/>
+        <s v="Armario empotrado (1.35x0.40x2.00)" u="1"/>
+        <s v="Mesa encargado1.00x0.50x0.70" u="1"/>
+        <s v="Estante 1.20x0.30x1.50" u="1"/>
+        <s v="Silla 0.30x0.35 (5° y 6° grado)" u="1"/>
+        <s v="Pizeta de 250 ml" u="1"/>
+        <s v="Mesa de lectura" u="1"/>
+        <s v="CAJA ACUSTICA AUTOAMPLIFICADA DE 1600W" u="1"/>
+        <s v="Cocina industrial con horno incorporado" u="1"/>
+        <s v="Mesa 0.50x0.60 (1° y 2° grado)" u="1"/>
+        <s v="Mesa 0.50x0.60 (3° y 4° grado)" u="1"/>
+        <s v="Extintor rojo TIPO ABC de 10 Kg" u="1"/>
+        <s v="Mesa 0.50x0.60 (5° y 6° grado)" u="1"/>
+        <s v="Silla giratoria Tipo I" u="1"/>
+        <s v="Mesas de trabajo  2.00x1.00" u="1"/>
+        <s v="Anaquel metalico Tipo II" u="1"/>
+        <s v="Gruesa de pelotitas" u="1"/>
+        <s v="Mueble móvil (0.55x0.70x0.90)" u="1"/>
+        <s v="Silla 0.30x0.35 (1° y 2° / 3° y 4° / 5° grado)" u="1"/>
+        <s v="Carro porta balones" u="1"/>
+        <s v="Lockers tipo I  M5-03" u="1"/>
+        <s v="TECLE CON CADENA" u="1"/>
+        <s v="Amasadora mezcladora" u="1"/>
+        <s v="Cronómetro" u="1"/>
+        <s v="Microscopio digital" u="1"/>
+        <s v="Extintor rojo tipo ABC de 4 Kg" u="1"/>
+        <s v="Mesas individuales 0.50x0.80" u="1"/>
+        <s v="Medidor de presión" u="1"/>
+        <s v="campana extractora" u="1"/>
+        <s v="Termómetro de mercurio para laboratorio" u="1"/>
+        <s v="Tapones de jebe mono horadado mediano" u="1"/>
+        <s v="Sogas elasticas" u="1"/>
+        <s v="Cono deportivo" u="1"/>
+        <s v="Mesa 0.50x0.60" u="1"/>
+        <s v="Silla para uso general" u="1"/>
+        <s v="Armario empotrado para labvoratorio" u="1"/>
+        <s v="Pinza de cocodrilo rojo y negro" u="1"/>
+        <s v="Mesa auxiliar para docente" u="1"/>
+        <s v="Silla Plegable o apilable pasa SUM" u="1"/>
+        <s v="Base con soporte universal de 0.80 cm" u="1"/>
+        <s v="Silla para Docente" u="1"/>
+        <s v="Silla 0.45x0.45x0.45 (docente)" u="1"/>
+        <s v="Colchoneta plegable" u="1"/>
+        <s v="Picas de 1.70 m inc/ porta picas (15 und)" u="1"/>
+        <s v="Armario empotrado para aulas " u="1"/>
+        <s v="Estante para libros (1.60 x 0.40 x 1.50)" u="1"/>
+        <s v="Instrumento Musical de Percusion " u="1"/>
+        <s v="Armario empotrado (1.84x60x115)" u="1"/>
+        <s v="lira" u="1"/>
+        <s v="Banca para vestuario" u="1"/>
+        <s v="PROCESADOR DE AUDIO" u="1"/>
+        <s v="Mortero de porcelana con pilón de 100ml" u="1"/>
+        <s v="Pandereta" u="1"/>
+        <s v="Mesa para computadora 0.80x0.50" u="1"/>
+        <s v="set de platillos de bronce" u="1"/>
+        <s v="Mesa 0.50x0.80" u="1"/>
+        <s v="Mesa de reuniones 300x120x75" u="1"/>
+        <s v="Termometro Digital" u="1"/>
+        <s v="Divisiones en closet" u="1"/>
+        <s v="Tarola importada" u="1"/>
+        <s v="Refrigeradora 680 L" u="1"/>
+        <s v="Saxo" u="1"/>
+        <s v="Matraz Kitasato de 250 ml" u="1"/>
+        <s v="luces tipo robot" u="1"/>
+        <s v="Estante para libros (1.00 x 0.40 x 2.10)" u="1"/>
+        <s v="Microscopios binoculares" u="1"/>
+        <s v="Mesa grupales" u="1"/>
+        <s v="Mesa encargado Tipo II" u="1"/>
+        <s v="Estante 1.20x0.40x1.50" u="1"/>
+        <s v="Armario alto para docente" u="1"/>
+        <s v="platillos cono voleibol" u="1"/>
+        <s v="Amasadora mezcladora 0.40 x 0.50" u="1"/>
+        <s v="Porteria portatil 3.00 x 1.80 m" u="1"/>
+        <s v="Biombo metalico de dos cuerpos" u="1"/>
+        <s v="Mesa auxiliar 0.90x0.45x0.90" u="1"/>
+        <s v="Prisma salida de carreras" u="1"/>
+        <s v="Lockers tipo I  M5-04" u="1"/>
+        <s v="PC portatil 15&quot;" u="1"/>
         <s v="Mesa para computadora 1.00x0.70" u="1"/>
-        <s v="Bajo de viento" u="1"/>
-        <s v="Estante 1.80x0.50X1.50" u="1"/>
-        <s v="Lockers tipo II  M3-06" u="1"/>
-        <s v="Estante para libros (1.00 x 0.40 x 2.10)" u="1"/>
+        <s v="Impresora multifuncional" u="1"/>
+        <s v="Pizarra de acero vitrificado (2.0x1.15)" u="1"/>
+        <s v="Silla de juez Voleibol" u="1"/>
+        <s v="Conos flexibles de 25 cm" u="1"/>
+        <s v="Pantalla Interactiva" u="1"/>
+        <s v="Fotocopiadora" u="1"/>
+        <s v="Tableros deportivos" u="1"/>
+        <s v="Raqueta de tenia de mesa" u="1"/>
+        <s v="Tablero de trabajo" u="1"/>
+        <s v="Mesa encargado Tipo I" u="1"/>
         <s v="Divisora 0.45x0.55" u="1"/>
-        <s v="Microscopio digital" u="1"/>
-        <s v="Platillo cono voleibol" u="1"/>
-        <s v="Tapones de jebe mono horadado mediano" u="1"/>
-        <s v="Embudo de decantación con llave de paso" u="1"/>
+        <s v="EXTINTOR Co2 DE 10 Lb" u="1"/>
+        <s v="Termómetro de mercurio -10a300ºC" u="1"/>
+        <s v="Lockers tipo III  M2-03" u="1"/>
+        <s v="Escala de velocidad 9m" u="1"/>
+        <s v="Mesa central" u="1"/>
         <s v="Camara filmadora" u="1"/>
-        <s v="Gotero de vidrio" u="1"/>
-        <s v="Porteria portatil 3.00 x 1.80 m" u="1"/>
-        <s v="Estante para libros (1.60 x 0.40 x 1.50)" u="1"/>
-        <s v="Computadora para escritorio monitor de 20&quot; Incl. UPS" u="1"/>
-        <s v="TV de 49&quot; Incl. Rack" u="1"/>
-        <s v="Tensiómetro aneroide adulto" u="1"/>
-        <s v="Sistema de Audio para SUM Primaria" u="1"/>
+        <s v="Butaca de 0.60 x0.60" u="1"/>
+        <s v="Luces tipo Tachos " u="1"/>
+        <s v="Plano inclinado metálico" u="1"/>
+        <s v="Tableros para desarrollo de pintura" u="1"/>
+        <s v="Porta CDs de 100 unidades" u="1"/>
+        <s v="Mesas de trabajo " u="1"/>
+        <s v="Cocina industrial con horno incorporado 140x60x90 cm" u="1"/>
+        <s v="Tapones de jebe bi horadado mediano" u="1"/>
+        <s v="Extintor ojo tipo" u="1"/>
+        <s v="Anaquel metalico de 0.65X0.45x2.00" u="1"/>
+        <s v="Atril de mesa 0.43 x 0.33" u="1"/>
+        <s v="Insumos para instalacion de Luces " u="1"/>
+        <s v="Equipo de audifonos y microfonos" u="1"/>
+        <s v="Congeladora 10x0.73" u="1"/>
+        <s v="Microfonos Kit" u="1"/>
+        <s v="Sillas según grupo" u="1"/>
+        <s v="Banco para laboratorio" u="1"/>
+        <s v="Anaquel metalico Tipo I" u="1"/>
+        <s v="Matraz Erlenmayer de 250 ml" u="1"/>
+        <s v="Fiola de vidrio de 250 ml" u="1"/>
+        <s v="Banca de 0.85x0.30" u="1"/>
+        <s v="Pizarra de acero vitrificado (3.0x1.15)" u="1"/>
+        <s v="Armario 1.00x0.60x0.90" u="1"/>
+        <s v="Pizarra de acero vitrificado (4.20x1.20)" u="1"/>
+        <s v="Mesa metalica rodable para multiples usos" u="1"/>
+        <s v="Mecheros de alcohol" u="1"/>
+        <s v="Barra de atencion 0.60x2.00" u="1"/>
+        <s v="Mesa de trabajo tipo II" u="1"/>
+        <s v="Soporte de red para mesa de tenis" u="1"/>
+        <s v="Gruesa de pelotitas para tenis" u="1"/>
+        <s v="Bolsa de agua fria" u="1"/>
         <s v="Software para Material didáctico digital" u="1"/>
-        <s v="Mesa de lectura" u="1"/>
-        <s v="Refrigeradora 680 L" u="1"/>
-        <s v="ESTRUCTURA DE SUJETACION" u="1"/>
-        <s v="Malla para aro de Básquet (par)" u="1"/>
-        <s v="Pizarra de acero vitrificado 1.50x1.20" u="1"/>
-        <s v="Servidor de Datos" u="1"/>
-        <s v="Cono semiesfericos" u="1"/>
-        <s v="Mesa grupales  0.90x1.50" u="1"/>
-        <s v="CAJA ACUSTICA AUTOAMPLIFICADA DE 1600W" u="1"/>
-        <s v="Saxo" u="1"/>
-        <s v="Atril de mesa" u="1"/>
-        <s v="Barra de atencion 0.60x2.00" u="1"/>
-        <s v="Extintor rojo tipo ABC de 4 Kg" u="1"/>
-        <s v="Mesa metalica rodable para multiples usos" u="1"/>
-        <s v="Mesa encargado Tipo I" u="1"/>
         <s v="Escobilla para tubo de ensayo" u="1"/>
-        <s v="sistema de extraccion de aire mecanico" u="1"/>
-        <s v="Mesa de trabajo 3.50x0.60" u="1"/>
-        <s v="Gruesa de pelotitas (6 UND)" u="1"/>
-        <s v="Estante para biblioteca del aula 1.60x0.40x1.50" u="1"/>
-        <s v="PC portatil" u="1"/>
-        <s v="set de platillos de bronce" u="1"/>
-        <s v="Escalinata con dos peldaños" u="1"/>
-        <s v="Mesa de reuniones 300x120x75" u="1"/>
-        <s v="Soporte de red para mesa de tenis" u="1"/>
-        <s v="Balanza de piso Tallímetro para personas" u="1"/>
-        <s v="Antenas voleibol" u="1"/>
-        <s v="Banca para vestuario" u="1"/>
-        <s v="Escala de velocidad 9m" u="1"/>
-        <s v="Armario empotrado para aulas " u="1"/>
-        <s v="Pinza de cocodrilo rojo y negro" u="1"/>
-        <s v="Mortero de porcelana con pilón de 100ml" u="1"/>
-        <s v="Cronómetro digital" u="1"/>
-        <s v="Equipo de audifonos y microfonos" u="1"/>
-        <s v="Prensa metálica tipo &quot;C&quot; mediano" u="1"/>
-        <s v="TECLE CON CADENA" u="1"/>
-        <s v="Armario 1.20x0.50x0.70" u="1"/>
-        <s v="Pinza para base soporte" u="1"/>
-        <s v="Anaquel metalico Tipo II" u="1"/>
-        <s v="Mesa para computadora 0.80x0.50" u="1"/>
-        <s v="Sillas según grupo 0.40x0.40x0.35" u="1"/>
-        <s v="Tacho de basura" u="1"/>
-        <s v="Banca de 0.85x0.30" u="1"/>
-        <s v="Pantalla Interactiva" u="1"/>
-        <s v="Camilla rodante 0.70x1.80" u="1"/>
-        <s v="Amasadora mezcladora 0.40 x 0.50" u="1"/>
-        <s v="Escritorio 1.50x0.60" u="1"/>
-        <s v="Mueble móvil (0.55x0.70x0.90)" u="1"/>
-        <s v="Conos de 5 cm" u="1"/>
-        <s v="PROCESADOR DE AUDIO" u="1"/>
-        <s v="Mesa comedor para comedor" u="1"/>
-        <s v="Escritorio 0.50x1.00x0.75 (docente)" u="1"/>
-        <s v="Camilla rodante" u="1"/>
-        <s v="Modulo de control DMX" u="1"/>
-        <s v="CONSOLA DE MEZCLA DIGITAL DE 40 ENTRADAS" u="1"/>
-        <s v="Cronómetro" u="1"/>
-        <s v="Cono semiesferico" u="1"/>
-        <s v="Postes de llegada" u="1"/>
-        <s v="Material didáctico video digital" u="1"/>
-        <s v="Microfonos Kit" u="1"/>
-        <s v="Globo terráqueo" u="1"/>
-        <s v="Mesa de trabajo tipo I" u="1"/>
-        <s v="platillos cono voleibol" u="1"/>
-        <s v="Bolsa de agua fria" u="1"/>
-        <s v="Medidor de presión" u="1"/>
-        <s v="Escobilla para probeta" u="1"/>
-        <s v="Silla giratoria Tipo I" u="1"/>
-        <s v="Mesa 0.50x0.60 Segun Grado" u="1"/>
-        <s v="Pieza de precision (3 Und)" u="1"/>
-        <s v="Mesas individuales 0.50x0.80" u="1"/>
-        <s v="Base con soporte universal de 0.80 cm" u="1"/>
-        <s v="Flauta importada" u="1"/>
-        <s v="Mesa encargado Tipo II" u="1"/>
-        <s v="Mesa comedor 1.50x0.80" u="1"/>
-        <s v="TV 82 pulgadas" u="1"/>
-        <s v="Mesa para computadora" u="1"/>
-        <s v="Pipeta graduada de vidrio de 2 ml" u="1"/>
-        <s v="Probeta graduada de vidrio de 250 ml" u="1"/>
-        <s v="Refrigeradora" u="1"/>
-        <s v="Mesa 2.00x1.20" u="1"/>
-        <s v="Amasadora mezcladora" u="1"/>
-        <s v="Armario 1.00x0.40x1.50" u="1"/>
-        <s v="Silla para uso general" u="1"/>
-        <s v="Mesa encargado1.20x0.80" u="1"/>
-        <s v="Cocina electrica de mesa" u="1"/>
-        <s v="Mesa 0.50x0.60 (1° y 2° grado)" u="1"/>
-        <s v="Carro porta balones" u="1"/>
-        <s v="Embudo de vidrio mediano" u="1"/>
-        <s v="CAJA ACUSTICA AUTOAMPLIFICADA SUB BAJO" u="1"/>
-        <s v="Pizarra de acero vitrificado (4.20x1.20)" u="1"/>
-        <s v="Equipo de sonido Incl. Microfono inalambrico" u="1"/>
+        <s v="COCINA INDUSTRIAL DE ACERO INOX" u="1"/>
+        <s v="Mesas individuales con tablero rebatible" u="1"/>
+        <s v="Postes Voleibol" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="UNIDAD" numFmtId="0">
@@ -2189,10 +1831,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="360" maxValue="42900"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5200" maxValue="42900"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="42900"/>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2204,9 +1846,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="44830.760179282406" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{53F21F46-99D3-4EB1-BDA3-61C213DA05BF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44833.777068518517" createdVersion="7" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{53F21F46-99D3-4EB1-BDA3-61C213DA05BF}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L9" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:L10" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Area" numFmtId="0">
@@ -2230,12 +1872,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ITEM" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems count="266">
-        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO"/>
-        <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
+      <sharedItems count="269">
+        <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
+        <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
+        <s v=" COCINA INDUSTRIAL DE ACERO INOX"/>
         <s v="UTENSILIOS DE COCINA"/>
         <s v="ESTANTERÍA PARA COCINA"/>
         <s v="ESTANTERÍA PARA COCINA DE COMEDOR"/>
@@ -2260,6 +1903,7 @@
         <s v="PC DE ESCRITORIO" u="1"/>
         <s v="Banco para laboratorio" u="1"/>
         <s v="Mesa 0.50x0.60 (5° y 6° grado)" u="1"/>
+        <s v="COCINA INDUSTRIAL DE ACERO INOX" u="1"/>
         <s v="Gradilla metálica para tubos de ensayo" u="1"/>
         <s v="Pizarra de acero vitrificado (3.0x1.15)" u="1"/>
         <s v="Estetoscopio pediátrico" u="1"/>
@@ -2395,6 +2039,7 @@
         <s v="SISTEMA DE AUDIO PARA ORATORIO" u="1"/>
         <s v="Mesa para computadora 1.00x0.70" u="1"/>
         <s v="Bajo de viento" u="1"/>
+        <s v="EQUIPAMIENTO PARA COMEDOR MULTIUSO" u="1"/>
         <s v="Estante 1.80x0.50X1.50" u="1"/>
         <s v="Estante para libros (1.00 x 0.40 x 2.10)" u="1"/>
         <s v="Divisora 0.45x0.55" u="1"/>
@@ -2512,7 +2157,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="360" maxValue="42900"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5200" maxValue="42900"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="42900"/>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -2533,7 +2178,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
     <s v="Comedor"/>
     <s v="Uso General"/>
@@ -2546,7 +2191,7 @@
     <n v="1"/>
     <n v="42900"/>
     <n v="42900"/>
-    <m/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2563,7 +2208,7 @@
     <n v="1"/>
     <n v="9800"/>
     <n v="9800"/>
-    <m/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2580,7 +2225,24 @@
     <n v="2"/>
     <n v="4500"/>
     <n v="9000"/>
+    <s v="EETT"/>
     <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Comedor"/>
+    <s v="Uso General"/>
+    <x v="0"/>
+    <s v="CUADRO N°02"/>
+    <s v="EQUIPAMIENTO PARA COMEDOR Y COCINA"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5000"/>
+    <n v="5000"/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2592,12 +2254,12 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="1"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="5200"/>
     <n v="5200"/>
-    <m/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2609,12 +2271,12 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="7500"/>
     <n v="7500"/>
-    <m/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2626,12 +2288,12 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Und"/>
     <n v="46"/>
     <n v="360"/>
     <n v="16560"/>
-    <m/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -2640,7 +2302,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
     <s v="Comedor"/>
     <x v="0"/>
@@ -2653,7 +2315,7 @@
     <n v="1"/>
     <n v="42900"/>
     <n v="42900"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2667,7 +2329,7 @@
     <n v="1"/>
     <n v="9800"/>
     <n v="9800"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2681,7 +2343,21 @@
     <n v="2"/>
     <n v="4500"/>
     <n v="9000"/>
-    <m/>
+    <s v="EETT"/>
+  </r>
+  <r>
+    <s v="Comedor"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°02"/>
+    <s v="EQUIPAMIENTO PARA COMEDOR Y COCINA"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5000"/>
+    <n v="5000"/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2690,12 +2366,12 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="1"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="5200"/>
     <n v="5200"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2704,12 +2380,12 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="7500"/>
     <n v="7500"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2718,18 +2394,18 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Und"/>
     <n v="46"/>
     <n v="360"/>
     <n v="16560"/>
-    <m/>
+    <s v="EETT"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
     <s v="Comedor"/>
     <x v="0"/>
@@ -2742,7 +2418,7 @@
     <n v="1"/>
     <n v="42900"/>
     <n v="42900"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2756,7 +2432,7 @@
     <n v="1"/>
     <n v="9800"/>
     <n v="9800"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2770,7 +2446,21 @@
     <n v="2"/>
     <n v="4500"/>
     <n v="9000"/>
-    <m/>
+    <s v="EETT"/>
+  </r>
+  <r>
+    <s v="Comedor"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°02"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5000"/>
+    <n v="5000"/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2779,12 +2469,12 @@
     <s v="CUADRO N°02"/>
     <x v="1"/>
     <n v="1"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="5200"/>
     <n v="5200"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2793,12 +2483,12 @@
     <s v="CUADRO N°02"/>
     <x v="1"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="7500"/>
     <n v="7500"/>
-    <m/>
+    <s v="EETT"/>
   </r>
   <r>
     <s v="Comedor"/>
@@ -2807,18 +2497,18 @@
     <s v="CUADRO N°02"/>
     <x v="1"/>
     <n v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Und"/>
     <n v="46"/>
     <n v="360"/>
     <n v="16560"/>
-    <m/>
+    <s v="EETT"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
     <s v="Comedor"/>
     <s v="Uso General"/>
@@ -2864,11 +2554,25 @@
   <r>
     <s v="Comedor"/>
     <s v="Uso General"/>
+    <x v="0"/>
+    <s v="CUADRO N°02"/>
+    <s v="EQUIPAMIENTO PARA COMEDOR Y COCINA"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5000"/>
+    <n v="5000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Comedor"/>
+    <s v="Uso General"/>
     <x v="1"/>
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="1"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="5200"/>
@@ -2882,7 +2586,7 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="2"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Und"/>
     <n v="1"/>
     <n v="7500"/>
@@ -2896,7 +2600,7 @@
     <s v="CUADRO N°02"/>
     <s v="MOBILIARIO PARA COMEDOR Y COCINA"/>
     <n v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Und"/>
     <n v="46"/>
     <n v="360"/>
@@ -2907,8 +2611,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2916,7 +2620,7 @@
       <items count="4">
         <item x="0"/>
         <item m="1" x="2"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2924,174 +2628,177 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="168">
+      <items count="171">
+        <item x="2"/>
+        <item m="1" x="23"/>
+        <item m="1" x="155"/>
+        <item m="1" x="143"/>
+        <item m="1" x="115"/>
+        <item m="1" x="121"/>
+        <item m="1" x="148"/>
+        <item m="1" x="39"/>
+        <item m="1" x="9"/>
+        <item m="1" x="125"/>
+        <item m="1" x="163"/>
+        <item m="1" x="169"/>
+        <item m="1" x="69"/>
+        <item m="1" x="156"/>
+        <item m="1" x="133"/>
+        <item m="1" x="164"/>
+        <item m="1" x="7"/>
+        <item m="1" x="46"/>
+        <item m="1" x="139"/>
+        <item m="1" x="73"/>
+        <item m="1" x="18"/>
+        <item m="1" x="44"/>
+        <item m="1" x="71"/>
+        <item m="1" x="167"/>
+        <item m="1" x="90"/>
+        <item m="1" x="126"/>
+        <item m="1" x="117"/>
+        <item m="1" x="37"/>
+        <item m="1" x="86"/>
+        <item m="1" x="64"/>
+        <item m="1" x="26"/>
+        <item m="1" x="79"/>
+        <item m="1" x="106"/>
+        <item m="1" x="38"/>
+        <item m="1" x="47"/>
+        <item m="1" x="116"/>
+        <item m="1" x="81"/>
+        <item m="1" x="13"/>
+        <item m="1" x="52"/>
+        <item x="0"/>
+        <item m="1" x="50"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="146"/>
+        <item m="1" x="67"/>
+        <item m="1" x="130"/>
         <item m="1" x="22"/>
+        <item m="1" x="84"/>
+        <item m="1" x="127"/>
+        <item m="1" x="25"/>
+        <item m="1" x="112"/>
+        <item m="1" x="65"/>
+        <item m="1" x="128"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="161"/>
+        <item m="1" x="111"/>
+        <item m="1" x="34"/>
+        <item m="1" x="134"/>
+        <item m="1" x="141"/>
+        <item m="1" x="35"/>
+        <item m="1" x="150"/>
+        <item m="1" x="54"/>
+        <item m="1" x="17"/>
+        <item m="1" x="122"/>
+        <item m="1" x="91"/>
+        <item m="1" x="99"/>
+        <item m="1" x="85"/>
+        <item m="1" x="132"/>
+        <item m="1" x="149"/>
+        <item m="1" x="20"/>
+        <item m="1" x="88"/>
+        <item m="1" x="104"/>
+        <item m="1" x="51"/>
+        <item m="1" x="10"/>
+        <item m="1" x="53"/>
+        <item m="1" x="135"/>
+        <item m="1" x="108"/>
+        <item m="1" x="89"/>
+        <item m="1" x="138"/>
+        <item m="1" x="31"/>
+        <item m="1" x="30"/>
+        <item m="1" x="55"/>
+        <item m="1" x="154"/>
+        <item m="1" x="158"/>
+        <item m="1" x="160"/>
+        <item m="1" x="49"/>
+        <item m="1" x="12"/>
+        <item m="1" x="87"/>
+        <item m="1" x="28"/>
+        <item m="1" x="43"/>
+        <item m="1" x="8"/>
+        <item m="1" x="48"/>
+        <item m="1" x="59"/>
+        <item m="1" x="103"/>
+        <item m="1" x="57"/>
+        <item m="1" x="77"/>
+        <item m="1" x="42"/>
+        <item m="1" x="21"/>
+        <item m="1" x="98"/>
+        <item m="1" x="33"/>
+        <item m="1" x="124"/>
+        <item m="1" x="109"/>
+        <item m="1" x="114"/>
+        <item m="1" x="82"/>
+        <item m="1" x="168"/>
+        <item m="1" x="76"/>
+        <item m="1" x="15"/>
+        <item m="1" x="102"/>
+        <item m="1" x="92"/>
+        <item m="1" x="136"/>
+        <item m="1" x="40"/>
+        <item m="1" x="14"/>
+        <item m="1" x="140"/>
+        <item m="1" x="72"/>
+        <item m="1" x="118"/>
+        <item m="1" x="32"/>
+        <item m="1" x="144"/>
+        <item m="1" x="142"/>
+        <item m="1" x="41"/>
+        <item m="1" x="105"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="119"/>
+        <item m="1" x="62"/>
+        <item m="1" x="137"/>
+        <item m="1" x="96"/>
+        <item m="1" x="165"/>
+        <item m="1" x="36"/>
+        <item x="6"/>
+        <item m="1" x="29"/>
+        <item m="1" x="145"/>
+        <item m="1" x="153"/>
+        <item m="1" x="19"/>
+        <item m="1" x="58"/>
+        <item m="1" x="27"/>
+        <item m="1" x="162"/>
+        <item m="1" x="80"/>
+        <item m="1" x="45"/>
+        <item m="1" x="78"/>
+        <item m="1" x="131"/>
+        <item m="1" x="24"/>
+        <item m="1" x="61"/>
+        <item m="1" x="97"/>
+        <item m="1" x="110"/>
+        <item m="1" x="147"/>
+        <item m="1" x="16"/>
+        <item m="1" x="95"/>
+        <item m="1" x="107"/>
         <item m="1" x="152"/>
-        <item m="1" x="140"/>
-        <item m="1" x="112"/>
-        <item m="1" x="118"/>
-        <item m="1" x="145"/>
-        <item m="1" x="38"/>
-        <item m="1" x="8"/>
-        <item m="1" x="122"/>
-        <item m="1" x="160"/>
+        <item m="1" x="93"/>
+        <item m="1" x="159"/>
+        <item m="1" x="101"/>
+        <item m="1" x="94"/>
+        <item m="1" x="113"/>
+        <item m="1" x="120"/>
+        <item m="1" x="60"/>
+        <item m="1" x="123"/>
+        <item m="1" x="75"/>
+        <item m="1" x="129"/>
+        <item m="1" x="157"/>
         <item m="1" x="166"/>
-        <item m="1" x="67"/>
-        <item m="1" x="153"/>
-        <item m="1" x="130"/>
-        <item m="1" x="161"/>
-        <item m="1" x="6"/>
-        <item m="1" x="45"/>
-        <item m="1" x="136"/>
-        <item m="1" x="71"/>
-        <item m="1" x="17"/>
-        <item m="1" x="43"/>
-        <item m="1" x="69"/>
-        <item m="1" x="164"/>
-        <item m="1" x="87"/>
-        <item m="1" x="123"/>
-        <item m="1" x="114"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item m="1" x="62"/>
-        <item m="1" x="25"/>
-        <item m="1" x="77"/>
-        <item m="1" x="103"/>
-        <item m="1" x="37"/>
-        <item m="1" x="46"/>
-        <item m="1" x="113"/>
-        <item m="1" x="79"/>
-        <item m="1" x="12"/>
-        <item m="1" x="50"/>
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="143"/>
-        <item m="1" x="65"/>
-        <item m="1" x="127"/>
-        <item m="1" x="21"/>
-        <item m="1" x="82"/>
-        <item m="1" x="124"/>
-        <item m="1" x="24"/>
-        <item m="1" x="109"/>
+        <item m="1" x="74"/>
+        <item m="1" x="66"/>
+        <item m="1" x="56"/>
+        <item m="1" x="68"/>
+        <item m="1" x="100"/>
         <item m="1" x="63"/>
-        <item m="1" x="125"/>
+        <item m="1" x="151"/>
         <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="158"/>
-        <item m="1" x="108"/>
-        <item m="1" x="33"/>
-        <item m="1" x="131"/>
-        <item m="1" x="138"/>
-        <item m="1" x="34"/>
-        <item m="1" x="147"/>
-        <item m="1" x="52"/>
-        <item m="1" x="16"/>
-        <item m="1" x="119"/>
-        <item m="1" x="88"/>
-        <item m="1" x="96"/>
-        <item m="1" x="83"/>
-        <item m="1" x="129"/>
-        <item m="1" x="146"/>
-        <item m="1" x="19"/>
-        <item m="1" x="85"/>
-        <item m="1" x="101"/>
-        <item m="1" x="49"/>
-        <item m="1" x="9"/>
-        <item m="1" x="51"/>
-        <item m="1" x="132"/>
-        <item m="1" x="105"/>
-        <item m="1" x="86"/>
-        <item m="1" x="135"/>
-        <item m="1" x="30"/>
-        <item m="1" x="29"/>
-        <item m="1" x="53"/>
-        <item m="1" x="151"/>
-        <item m="1" x="155"/>
-        <item m="1" x="157"/>
-        <item m="1" x="48"/>
-        <item m="1" x="11"/>
-        <item m="1" x="84"/>
-        <item m="1" x="27"/>
-        <item m="1" x="42"/>
-        <item m="1" x="7"/>
-        <item m="1" x="47"/>
-        <item m="1" x="57"/>
-        <item m="1" x="100"/>
-        <item m="1" x="55"/>
-        <item m="1" x="75"/>
-        <item m="1" x="41"/>
-        <item m="1" x="20"/>
-        <item m="1" x="95"/>
-        <item m="1" x="32"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="111"/>
-        <item m="1" x="80"/>
-        <item m="1" x="165"/>
-        <item m="1" x="74"/>
-        <item m="1" x="14"/>
-        <item m="1" x="99"/>
-        <item m="1" x="89"/>
-        <item m="1" x="133"/>
-        <item m="1" x="39"/>
-        <item m="1" x="13"/>
-        <item m="1" x="137"/>
-        <item m="1" x="70"/>
-        <item m="1" x="115"/>
-        <item m="1" x="31"/>
-        <item m="1" x="141"/>
-        <item m="1" x="139"/>
-        <item m="1" x="40"/>
-        <item m="1" x="102"/>
-        <item m="1" x="81"/>
-        <item m="1" x="68"/>
-        <item m="1" x="116"/>
-        <item m="1" x="60"/>
-        <item m="1" x="134"/>
-        <item m="1" x="93"/>
-        <item m="1" x="162"/>
-        <item m="1" x="35"/>
-        <item x="5"/>
-        <item m="1" x="28"/>
-        <item m="1" x="142"/>
-        <item m="1" x="150"/>
-        <item m="1" x="18"/>
-        <item m="1" x="56"/>
-        <item m="1" x="26"/>
-        <item m="1" x="159"/>
-        <item m="1" x="78"/>
-        <item m="1" x="44"/>
-        <item m="1" x="76"/>
-        <item m="1" x="128"/>
-        <item m="1" x="23"/>
-        <item m="1" x="59"/>
-        <item m="1" x="94"/>
-        <item m="1" x="107"/>
-        <item m="1" x="144"/>
-        <item m="1" x="15"/>
-        <item m="1" x="92"/>
-        <item m="1" x="104"/>
-        <item m="1" x="149"/>
-        <item m="1" x="90"/>
-        <item m="1" x="156"/>
-        <item m="1" x="98"/>
-        <item m="1" x="91"/>
-        <item m="1" x="110"/>
-        <item m="1" x="117"/>
-        <item m="1" x="58"/>
-        <item m="1" x="120"/>
-        <item m="1" x="73"/>
-        <item m="1" x="126"/>
-        <item m="1" x="154"/>
-        <item m="1" x="163"/>
-        <item m="1" x="72"/>
-        <item m="1" x="64"/>
-        <item m="1" x="54"/>
-        <item m="1" x="66"/>
-        <item m="1" x="97"/>
-        <item m="1" x="61"/>
-        <item m="1" x="148"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3108,21 +2815,33 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="27"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="38"/>
+      <x v="39"/>
     </i>
     <i r="1">
-      <x v="166"/>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="169"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
     </i>
     <i t="grand">
       <x/>
@@ -3148,7 +2867,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="6" baseItem="24" numFmtId="4"/>
   </dataFields>
   <formats count="25">
-    <format dxfId="73">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -3158,7 +2877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3168,63 +2887,60 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="28">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="50">
-            <x v="0"/>
-            <x v="3"/>
-            <x v="9"/>
+            <x v="1"/>
+            <x v="4"/>
             <x v="10"/>
-            <x v="15"/>
+            <x v="11"/>
             <x v="16"/>
-            <x v="18"/>
+            <x v="17"/>
             <x v="19"/>
             <x v="20"/>
             <x v="21"/>
             <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="28"/>
+            <x v="23"/>
+            <x v="25"/>
+            <x v="27"/>
             <x v="29"/>
             <x v="30"/>
             <x v="31"/>
             <x v="32"/>
             <x v="33"/>
-            <x v="35"/>
+            <x v="34"/>
             <x v="36"/>
             <x v="37"/>
-            <x v="39"/>
-            <x v="40"/>
-            <x v="41"/>
+            <x v="38"/>
             <x v="42"/>
-            <x v="52"/>
-            <x v="53"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
             <x v="55"/>
             <x v="56"/>
-            <x v="57"/>
             <x v="58"/>
             <x v="59"/>
             <x v="60"/>
@@ -3238,119 +2954,119 @@
             <x v="68"/>
             <x v="69"/>
             <x v="70"/>
-            <x v="74"/>
-            <x v="75"/>
-            <x v="76"/>
+            <x v="71"/>
+            <x v="72"/>
+            <x v="73"/>
             <x v="77"/>
             <x v="78"/>
             <x v="79"/>
+            <x v="80"/>
+            <x v="81"/>
+            <x v="82"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="45">
-            <x v="90"/>
-            <x v="92"/>
-            <x v="94"/>
-            <x v="101"/>
-            <x v="102"/>
-            <x v="103"/>
+            <x v="93"/>
+            <x v="95"/>
+            <x v="97"/>
             <x v="104"/>
+            <x v="105"/>
             <x v="106"/>
             <x v="107"/>
-            <x v="108"/>
             <x v="109"/>
             <x v="110"/>
             <x v="111"/>
             <x v="112"/>
-            <x v="117"/>
-            <x v="118"/>
-            <x v="119"/>
+            <x v="113"/>
+            <x v="114"/>
+            <x v="115"/>
             <x v="120"/>
             <x v="121"/>
             <x v="122"/>
             <x v="123"/>
             <x v="124"/>
             <x v="125"/>
+            <x v="126"/>
             <x v="127"/>
             <x v="128"/>
-            <x v="129"/>
             <x v="130"/>
             <x v="131"/>
             <x v="132"/>
             <x v="133"/>
             <x v="134"/>
-            <x v="140"/>
-            <x v="149"/>
-            <x v="150"/>
-            <x v="151"/>
+            <x v="135"/>
+            <x v="136"/>
+            <x v="137"/>
+            <x v="143"/>
+            <x v="152"/>
             <x v="153"/>
             <x v="154"/>
-            <x v="155"/>
+            <x v="156"/>
             <x v="157"/>
+            <x v="158"/>
             <x v="160"/>
-            <x v="161"/>
-            <x v="162"/>
             <x v="163"/>
             <x v="164"/>
             <x v="165"/>
+            <x v="166"/>
+            <x v="167"/>
+            <x v="168"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="6" count="1">
-            <x v="152"/>
+            <x v="155"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="50">
-            <x v="1"/>
             <x v="2"/>
-            <x v="4"/>
+            <x v="3"/>
             <x v="5"/>
             <x v="6"/>
             <x v="7"/>
             <x v="8"/>
-            <x v="11"/>
+            <x v="9"/>
             <x v="12"/>
             <x v="13"/>
             <x v="14"/>
-            <x v="17"/>
-            <x v="23"/>
-            <x v="25"/>
-            <x v="34"/>
-            <x v="43"/>
-            <x v="44"/>
-            <x v="45"/>
+            <x v="15"/>
+            <x v="18"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="35"/>
             <x v="46"/>
             <x v="47"/>
             <x v="48"/>
             <x v="49"/>
-            <x v="71"/>
-            <x v="72"/>
-            <x v="73"/>
-            <x v="80"/>
-            <x v="81"/>
-            <x v="82"/>
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="74"/>
+            <x v="75"/>
+            <x v="76"/>
             <x v="83"/>
             <x v="84"/>
             <x v="85"/>
@@ -3358,51 +3074,54 @@
             <x v="87"/>
             <x v="88"/>
             <x v="89"/>
+            <x v="90"/>
             <x v="91"/>
-            <x v="93"/>
-            <x v="95"/>
+            <x v="92"/>
+            <x v="94"/>
             <x v="96"/>
-            <x v="97"/>
             <x v="98"/>
             <x v="99"/>
             <x v="100"/>
-            <x v="105"/>
-            <x v="113"/>
-            <x v="114"/>
-            <x v="115"/>
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="108"/>
             <x v="116"/>
-            <x v="135"/>
-            <x v="136"/>
+            <x v="117"/>
+            <x v="118"/>
+            <x v="119"/>
+            <x v="138"/>
+            <x v="139"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="14">
-            <x v="137"/>
-            <x v="138"/>
-            <x v="139"/>
+            <x v="140"/>
             <x v="141"/>
             <x v="142"/>
-            <x v="143"/>
             <x v="144"/>
             <x v="145"/>
             <x v="146"/>
             <x v="147"/>
             <x v="148"/>
-            <x v="156"/>
-            <x v="158"/>
+            <x v="149"/>
+            <x v="150"/>
+            <x v="151"/>
             <x v="159"/>
+            <x v="161"/>
+            <x v="162"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3413,63 +3132,60 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="17">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="50">
-            <x v="0"/>
-            <x v="3"/>
-            <x v="9"/>
+            <x v="1"/>
+            <x v="4"/>
             <x v="10"/>
-            <x v="15"/>
+            <x v="11"/>
             <x v="16"/>
-            <x v="18"/>
+            <x v="17"/>
             <x v="19"/>
             <x v="20"/>
             <x v="21"/>
             <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="28"/>
+            <x v="23"/>
+            <x v="25"/>
+            <x v="27"/>
             <x v="29"/>
             <x v="30"/>
             <x v="31"/>
             <x v="32"/>
             <x v="33"/>
-            <x v="35"/>
+            <x v="34"/>
             <x v="36"/>
             <x v="37"/>
-            <x v="39"/>
-            <x v="40"/>
-            <x v="41"/>
+            <x v="38"/>
             <x v="42"/>
-            <x v="52"/>
-            <x v="53"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
             <x v="55"/>
             <x v="56"/>
-            <x v="57"/>
             <x v="58"/>
             <x v="59"/>
             <x v="60"/>
@@ -3483,119 +3199,119 @@
             <x v="68"/>
             <x v="69"/>
             <x v="70"/>
-            <x v="74"/>
-            <x v="75"/>
-            <x v="76"/>
+            <x v="71"/>
+            <x v="72"/>
+            <x v="73"/>
             <x v="77"/>
             <x v="78"/>
             <x v="79"/>
+            <x v="80"/>
+            <x v="81"/>
+            <x v="82"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="6" count="45">
-            <x v="90"/>
-            <x v="92"/>
-            <x v="94"/>
-            <x v="101"/>
-            <x v="102"/>
-            <x v="103"/>
+            <x v="93"/>
+            <x v="95"/>
+            <x v="97"/>
             <x v="104"/>
+            <x v="105"/>
             <x v="106"/>
             <x v="107"/>
-            <x v="108"/>
             <x v="109"/>
             <x v="110"/>
             <x v="111"/>
             <x v="112"/>
-            <x v="117"/>
-            <x v="118"/>
-            <x v="119"/>
+            <x v="113"/>
+            <x v="114"/>
+            <x v="115"/>
             <x v="120"/>
             <x v="121"/>
             <x v="122"/>
             <x v="123"/>
             <x v="124"/>
             <x v="125"/>
+            <x v="126"/>
             <x v="127"/>
             <x v="128"/>
-            <x v="129"/>
             <x v="130"/>
             <x v="131"/>
             <x v="132"/>
             <x v="133"/>
             <x v="134"/>
-            <x v="140"/>
-            <x v="149"/>
-            <x v="150"/>
-            <x v="151"/>
+            <x v="135"/>
+            <x v="136"/>
+            <x v="137"/>
+            <x v="143"/>
+            <x v="152"/>
             <x v="153"/>
             <x v="154"/>
-            <x v="155"/>
+            <x v="156"/>
             <x v="157"/>
+            <x v="158"/>
             <x v="160"/>
-            <x v="161"/>
-            <x v="162"/>
             <x v="163"/>
             <x v="164"/>
             <x v="165"/>
+            <x v="166"/>
+            <x v="167"/>
+            <x v="168"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="6" count="1">
-            <x v="152"/>
+            <x v="155"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="50">
-            <x v="1"/>
             <x v="2"/>
-            <x v="4"/>
+            <x v="3"/>
             <x v="5"/>
             <x v="6"/>
             <x v="7"/>
             <x v="8"/>
-            <x v="11"/>
+            <x v="9"/>
             <x v="12"/>
             <x v="13"/>
             <x v="14"/>
-            <x v="17"/>
-            <x v="23"/>
-            <x v="25"/>
-            <x v="34"/>
-            <x v="43"/>
-            <x v="44"/>
-            <x v="45"/>
+            <x v="15"/>
+            <x v="18"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="35"/>
             <x v="46"/>
             <x v="47"/>
             <x v="48"/>
             <x v="49"/>
-            <x v="71"/>
-            <x v="72"/>
-            <x v="73"/>
-            <x v="80"/>
-            <x v="81"/>
-            <x v="82"/>
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="74"/>
+            <x v="75"/>
+            <x v="76"/>
             <x v="83"/>
             <x v="84"/>
             <x v="85"/>
@@ -3603,51 +3319,54 @@
             <x v="87"/>
             <x v="88"/>
             <x v="89"/>
+            <x v="90"/>
             <x v="91"/>
-            <x v="93"/>
-            <x v="95"/>
+            <x v="92"/>
+            <x v="94"/>
             <x v="96"/>
-            <x v="97"/>
             <x v="98"/>
             <x v="99"/>
             <x v="100"/>
-            <x v="105"/>
-            <x v="113"/>
-            <x v="114"/>
-            <x v="115"/>
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="108"/>
             <x v="116"/>
-            <x v="135"/>
-            <x v="136"/>
+            <x v="117"/>
+            <x v="118"/>
+            <x v="119"/>
+            <x v="138"/>
+            <x v="139"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="14">
-            <x v="137"/>
-            <x v="138"/>
-            <x v="139"/>
+            <x v="140"/>
             <x v="141"/>
             <x v="142"/>
-            <x v="143"/>
             <x v="144"/>
             <x v="145"/>
             <x v="146"/>
             <x v="147"/>
             <x v="148"/>
-            <x v="156"/>
-            <x v="158"/>
+            <x v="149"/>
+            <x v="150"/>
+            <x v="151"/>
             <x v="159"/>
+            <x v="161"/>
+            <x v="162"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3658,7 +3377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3668,25 +3387,25 @@
             <x v="0"/>
           </reference>
           <reference field="6" count="19">
-            <x v="66"/>
-            <x v="67"/>
-            <x v="68"/>
             <x v="69"/>
             <x v="70"/>
-            <x v="74"/>
-            <x v="75"/>
-            <x v="76"/>
+            <x v="71"/>
+            <x v="72"/>
+            <x v="73"/>
             <x v="77"/>
             <x v="78"/>
             <x v="79"/>
-            <x v="90"/>
-            <x v="92"/>
-            <x v="94"/>
-            <x v="101"/>
-            <x v="102"/>
-            <x v="103"/>
+            <x v="80"/>
+            <x v="81"/>
+            <x v="82"/>
+            <x v="93"/>
+            <x v="95"/>
+            <x v="97"/>
             <x v="104"/>
+            <x v="105"/>
             <x v="106"/>
+            <x v="107"/>
+            <x v="109"/>
           </reference>
         </references>
       </pivotArea>
@@ -3705,8 +3424,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3729,174 +3448,177 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="168">
+      <items count="171">
+        <item x="2"/>
+        <item m="1" x="23"/>
+        <item m="1" x="155"/>
+        <item m="1" x="143"/>
+        <item m="1" x="114"/>
+        <item m="1" x="121"/>
+        <item m="1" x="148"/>
+        <item m="1" x="38"/>
+        <item m="1" x="9"/>
+        <item m="1" x="125"/>
+        <item m="1" x="163"/>
+        <item m="1" x="169"/>
+        <item m="1" x="68"/>
+        <item m="1" x="156"/>
+        <item m="1" x="133"/>
+        <item m="1" x="164"/>
+        <item m="1" x="7"/>
+        <item m="1" x="45"/>
+        <item m="1" x="139"/>
+        <item m="1" x="72"/>
+        <item m="1" x="18"/>
+        <item m="1" x="43"/>
+        <item m="1" x="70"/>
+        <item m="1" x="167"/>
+        <item m="1" x="89"/>
+        <item m="1" x="126"/>
+        <item m="1" x="116"/>
+        <item m="1" x="36"/>
+        <item m="1" x="85"/>
+        <item m="1" x="63"/>
+        <item m="1" x="26"/>
+        <item m="1" x="78"/>
+        <item m="1" x="105"/>
+        <item m="1" x="37"/>
+        <item m="1" x="46"/>
+        <item m="1" x="115"/>
+        <item m="1" x="80"/>
+        <item m="1" x="13"/>
+        <item m="1" x="51"/>
+        <item x="0"/>
+        <item m="1" x="49"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="146"/>
+        <item m="1" x="66"/>
+        <item m="1" x="130"/>
         <item m="1" x="22"/>
+        <item m="1" x="118"/>
+        <item m="1" x="83"/>
+        <item m="1" x="127"/>
+        <item m="1" x="25"/>
+        <item m="1" x="111"/>
+        <item m="1" x="64"/>
+        <item m="1" x="128"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="161"/>
+        <item m="1" x="110"/>
+        <item m="1" x="134"/>
+        <item m="1" x="141"/>
+        <item m="1" x="34"/>
+        <item m="1" x="150"/>
+        <item m="1" x="53"/>
+        <item m="1" x="17"/>
+        <item m="1" x="122"/>
+        <item m="1" x="90"/>
+        <item m="1" x="98"/>
+        <item m="1" x="84"/>
+        <item m="1" x="132"/>
+        <item m="1" x="149"/>
+        <item m="1" x="20"/>
+        <item m="1" x="87"/>
+        <item m="1" x="103"/>
+        <item m="1" x="50"/>
+        <item m="1" x="10"/>
+        <item m="1" x="52"/>
+        <item m="1" x="135"/>
+        <item m="1" x="107"/>
+        <item m="1" x="88"/>
+        <item m="1" x="138"/>
+        <item m="1" x="31"/>
+        <item m="1" x="30"/>
+        <item m="1" x="54"/>
+        <item m="1" x="154"/>
+        <item m="1" x="158"/>
+        <item m="1" x="160"/>
+        <item m="1" x="48"/>
+        <item m="1" x="12"/>
+        <item m="1" x="86"/>
+        <item m="1" x="28"/>
+        <item m="1" x="42"/>
+        <item m="1" x="8"/>
+        <item m="1" x="47"/>
+        <item m="1" x="58"/>
+        <item m="1" x="102"/>
+        <item m="1" x="56"/>
+        <item m="1" x="76"/>
+        <item m="1" x="41"/>
+        <item m="1" x="21"/>
+        <item m="1" x="97"/>
+        <item m="1" x="33"/>
+        <item m="1" x="124"/>
+        <item m="1" x="108"/>
+        <item m="1" x="113"/>
+        <item m="1" x="81"/>
+        <item m="1" x="168"/>
+        <item m="1" x="75"/>
+        <item m="1" x="15"/>
+        <item m="1" x="101"/>
+        <item m="1" x="91"/>
+        <item m="1" x="136"/>
+        <item m="1" x="39"/>
+        <item m="1" x="14"/>
+        <item m="1" x="140"/>
+        <item m="1" x="71"/>
+        <item m="1" x="117"/>
+        <item m="1" x="32"/>
+        <item m="1" x="144"/>
+        <item m="1" x="142"/>
+        <item m="1" x="40"/>
+        <item m="1" x="104"/>
+        <item m="1" x="82"/>
+        <item m="1" x="69"/>
+        <item m="1" x="119"/>
+        <item m="1" x="61"/>
+        <item m="1" x="137"/>
+        <item m="1" x="95"/>
+        <item m="1" x="165"/>
+        <item m="1" x="35"/>
+        <item x="6"/>
+        <item m="1" x="29"/>
+        <item m="1" x="145"/>
+        <item m="1" x="153"/>
+        <item m="1" x="19"/>
+        <item m="1" x="57"/>
+        <item m="1" x="27"/>
+        <item m="1" x="162"/>
+        <item m="1" x="79"/>
+        <item m="1" x="44"/>
+        <item m="1" x="77"/>
+        <item m="1" x="131"/>
+        <item m="1" x="24"/>
+        <item m="1" x="60"/>
+        <item m="1" x="96"/>
+        <item m="1" x="109"/>
+        <item m="1" x="147"/>
+        <item m="1" x="16"/>
+        <item m="1" x="94"/>
+        <item m="1" x="106"/>
         <item m="1" x="152"/>
-        <item m="1" x="140"/>
-        <item m="1" x="111"/>
-        <item m="1" x="118"/>
-        <item m="1" x="145"/>
-        <item m="1" x="37"/>
-        <item m="1" x="8"/>
-        <item m="1" x="122"/>
-        <item m="1" x="160"/>
+        <item m="1" x="92"/>
+        <item m="1" x="159"/>
+        <item m="1" x="100"/>
+        <item m="1" x="93"/>
+        <item m="1" x="112"/>
+        <item m="1" x="120"/>
+        <item m="1" x="59"/>
+        <item m="1" x="123"/>
+        <item m="1" x="74"/>
+        <item m="1" x="129"/>
+        <item m="1" x="157"/>
         <item m="1" x="166"/>
-        <item m="1" x="66"/>
-        <item m="1" x="153"/>
-        <item m="1" x="130"/>
-        <item m="1" x="161"/>
-        <item m="1" x="6"/>
-        <item m="1" x="44"/>
-        <item m="1" x="136"/>
-        <item m="1" x="70"/>
-        <item m="1" x="17"/>
-        <item m="1" x="42"/>
-        <item m="1" x="68"/>
-        <item m="1" x="164"/>
-        <item m="1" x="86"/>
-        <item m="1" x="123"/>
-        <item m="1" x="113"/>
-        <item m="1" x="35"/>
-        <item x="1"/>
-        <item m="1" x="61"/>
-        <item m="1" x="25"/>
-        <item m="1" x="76"/>
-        <item m="1" x="102"/>
-        <item m="1" x="36"/>
-        <item m="1" x="45"/>
-        <item m="1" x="112"/>
-        <item m="1" x="78"/>
-        <item m="1" x="12"/>
-        <item m="1" x="49"/>
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="143"/>
-        <item m="1" x="64"/>
-        <item m="1" x="127"/>
-        <item m="1" x="21"/>
-        <item m="1" x="115"/>
-        <item m="1" x="81"/>
-        <item m="1" x="124"/>
-        <item m="1" x="24"/>
-        <item m="1" x="108"/>
+        <item m="1" x="73"/>
+        <item m="1" x="65"/>
+        <item m="1" x="55"/>
+        <item m="1" x="67"/>
+        <item m="1" x="99"/>
         <item m="1" x="62"/>
-        <item m="1" x="125"/>
+        <item m="1" x="151"/>
         <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="158"/>
-        <item m="1" x="107"/>
-        <item m="1" x="131"/>
-        <item m="1" x="138"/>
-        <item m="1" x="33"/>
-        <item m="1" x="147"/>
-        <item m="1" x="51"/>
-        <item m="1" x="16"/>
-        <item m="1" x="119"/>
-        <item m="1" x="87"/>
-        <item m="1" x="95"/>
-        <item m="1" x="82"/>
-        <item m="1" x="129"/>
-        <item m="1" x="146"/>
-        <item m="1" x="19"/>
-        <item m="1" x="84"/>
-        <item m="1" x="100"/>
-        <item m="1" x="48"/>
-        <item m="1" x="9"/>
-        <item m="1" x="50"/>
-        <item m="1" x="132"/>
-        <item m="1" x="104"/>
-        <item m="1" x="85"/>
-        <item m="1" x="135"/>
-        <item m="1" x="30"/>
-        <item m="1" x="29"/>
-        <item m="1" x="52"/>
-        <item m="1" x="151"/>
-        <item m="1" x="155"/>
-        <item m="1" x="157"/>
-        <item m="1" x="47"/>
-        <item m="1" x="11"/>
-        <item m="1" x="83"/>
-        <item m="1" x="27"/>
-        <item m="1" x="41"/>
-        <item m="1" x="7"/>
-        <item m="1" x="46"/>
-        <item m="1" x="56"/>
-        <item m="1" x="99"/>
-        <item m="1" x="54"/>
-        <item m="1" x="74"/>
-        <item m="1" x="40"/>
-        <item m="1" x="20"/>
-        <item m="1" x="94"/>
-        <item m="1" x="32"/>
-        <item m="1" x="121"/>
-        <item m="1" x="105"/>
-        <item m="1" x="110"/>
-        <item m="1" x="79"/>
-        <item m="1" x="165"/>
-        <item m="1" x="73"/>
-        <item m="1" x="14"/>
-        <item m="1" x="98"/>
-        <item m="1" x="88"/>
-        <item m="1" x="133"/>
-        <item m="1" x="38"/>
-        <item m="1" x="13"/>
-        <item m="1" x="137"/>
-        <item m="1" x="69"/>
-        <item m="1" x="114"/>
-        <item m="1" x="31"/>
-        <item m="1" x="141"/>
-        <item m="1" x="139"/>
-        <item m="1" x="39"/>
-        <item m="1" x="101"/>
-        <item m="1" x="80"/>
-        <item m="1" x="67"/>
-        <item m="1" x="116"/>
-        <item m="1" x="59"/>
-        <item m="1" x="134"/>
-        <item m="1" x="92"/>
-        <item m="1" x="162"/>
-        <item m="1" x="34"/>
-        <item x="5"/>
-        <item m="1" x="28"/>
-        <item m="1" x="142"/>
-        <item m="1" x="150"/>
-        <item m="1" x="18"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="159"/>
-        <item m="1" x="77"/>
-        <item m="1" x="43"/>
-        <item m="1" x="75"/>
-        <item m="1" x="128"/>
-        <item m="1" x="23"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="106"/>
-        <item m="1" x="144"/>
-        <item m="1" x="15"/>
-        <item m="1" x="91"/>
-        <item m="1" x="103"/>
-        <item m="1" x="149"/>
-        <item m="1" x="89"/>
-        <item m="1" x="156"/>
-        <item m="1" x="97"/>
-        <item m="1" x="90"/>
-        <item m="1" x="109"/>
-        <item m="1" x="117"/>
-        <item m="1" x="57"/>
-        <item m="1" x="120"/>
-        <item m="1" x="72"/>
-        <item m="1" x="126"/>
-        <item m="1" x="154"/>
-        <item m="1" x="163"/>
-        <item m="1" x="71"/>
-        <item m="1" x="63"/>
-        <item m="1" x="53"/>
-        <item m="1" x="65"/>
-        <item m="1" x="96"/>
-        <item m="1" x="60"/>
-        <item m="1" x="148"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3911,7 +3633,7 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x v="2"/>
     </i>
@@ -3919,25 +3641,28 @@
       <x/>
     </i>
     <i r="2">
-      <x v="27"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="38"/>
+      <x v="39"/>
     </i>
     <i r="2">
-      <x v="166"/>
+      <x v="41"/>
+    </i>
+    <i r="2">
+      <x v="169"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="51"/>
+      <x v="54"/>
     </i>
     <i r="2">
-      <x v="52"/>
+      <x v="55"/>
     </i>
     <i r="2">
-      <x v="126"/>
+      <x v="129"/>
     </i>
     <i t="grand">
       <x/>
@@ -3963,7 +3688,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="48">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3972,7 +3697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3981,7 +3706,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3990,7 +3715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4013,8 +3738,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -4038,110 +3763,110 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="107">
+        <item m="1" x="14"/>
+        <item m="1" x="7"/>
+        <item m="1" x="82"/>
+        <item m="1" x="8"/>
+        <item m="1" x="83"/>
+        <item m="1" x="89"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="33"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
+        <item m="1" x="51"/>
+        <item m="1" x="79"/>
+        <item m="1" x="81"/>
+        <item m="1" x="43"/>
+        <item m="1" x="95"/>
+        <item m="1" x="9"/>
+        <item m="1" x="86"/>
+        <item m="1" x="70"/>
+        <item m="1" x="100"/>
+        <item m="1" x="103"/>
+        <item m="1" x="53"/>
+        <item m="1" x="49"/>
+        <item m="1" x="16"/>
+        <item m="1" x="46"/>
+        <item m="1" x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="37"/>
+        <item m="1" x="84"/>
+        <item m="1" x="38"/>
+        <item m="1" x="45"/>
+        <item m="1" x="91"/>
+        <item m="1" x="41"/>
+        <item m="1" x="19"/>
+        <item m="1" x="39"/>
+        <item m="1" x="85"/>
+        <item m="1" x="40"/>
+        <item m="1" x="10"/>
+        <item m="1" x="90"/>
+        <item m="1" x="98"/>
         <item m="1" x="36"/>
+        <item m="1" x="67"/>
+        <item m="1" x="58"/>
+        <item m="1" x="27"/>
+        <item m="1" x="34"/>
+        <item m="1" x="72"/>
+        <item m="1" x="96"/>
+        <item m="1" x="21"/>
+        <item m="1" x="60"/>
+        <item m="1" x="104"/>
+        <item m="1" x="92"/>
+        <item m="1" x="101"/>
+        <item m="1" x="80"/>
+        <item m="1" x="61"/>
+        <item m="1" x="12"/>
+        <item m="1" x="56"/>
+        <item m="1" x="17"/>
+        <item m="1" x="75"/>
+        <item m="1" x="76"/>
+        <item m="1" x="4"/>
+        <item m="1" x="87"/>
+        <item m="1" x="22"/>
+        <item m="1" x="62"/>
+        <item m="1" x="23"/>
+        <item m="1" x="63"/>
+        <item m="1" x="69"/>
+        <item m="1" x="35"/>
+        <item m="1" x="64"/>
+        <item m="1" x="71"/>
+        <item m="1" x="66"/>
+        <item m="1" x="47"/>
         <item m="1" x="24"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item m="1" x="72"/>
-        <item m="1" x="53"/>
-        <item m="1" x="16"/>
+        <item m="1" x="5"/>
+        <item m="1" x="88"/>
+        <item m="1" x="54"/>
+        <item m="1" x="59"/>
+        <item m="1" x="94"/>
         <item m="1" x="97"/>
-        <item m="1" x="48"/>
-        <item m="1" x="39"/>
-        <item m="1" x="76"/>
-        <item m="1" x="40"/>
-        <item m="1" x="85"/>
-        <item m="1" x="44"/>
-        <item m="1" x="64"/>
-        <item m="1" x="32"/>
-        <item m="1" x="56"/>
-        <item m="1" x="91"/>
-        <item m="1" x="89"/>
-        <item m="1" x="43"/>
         <item m="1" x="74"/>
         <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="41"/>
-        <item m="1" x="96"/>
-        <item m="1" x="45"/>
-        <item m="1" x="98"/>
-        <item m="1" x="10"/>
-        <item m="1" x="58"/>
+        <item m="1" x="105"/>
+        <item m="1" x="42"/>
+        <item m="1" x="55"/>
+        <item m="1" x="99"/>
+        <item m="1" x="48"/>
+        <item m="1" x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="18"/>
+        <item m="1" x="29"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="52"/>
         <item m="1" x="77"/>
-        <item m="1" x="59"/>
-        <item m="1" x="46"/>
-        <item m="1" x="80"/>
-        <item m="1" x="6"/>
-        <item m="1" x="73"/>
-        <item m="1" x="60"/>
+        <item m="1" x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="102"/>
+        <item m="1" x="57"/>
+        <item m="1" x="32"/>
         <item m="1" x="78"/>
-        <item m="1" x="61"/>
-        <item m="1" x="33"/>
-        <item m="1" x="23"/>
-        <item m="1" x="54"/>
-        <item m="1" x="104"/>
-        <item m="1" x="71"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="52"/>
-        <item m="1" x="67"/>
-        <item m="1" x="92"/>
-        <item m="1" x="17"/>
-        <item m="1" x="62"/>
-        <item m="1" x="88"/>
-        <item m="1" x="29"/>
-        <item m="1" x="75"/>
-        <item m="1" x="18"/>
-        <item m="1" x="57"/>
-        <item m="1" x="103"/>
-        <item m="1" x="14"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="83"/>
-        <item m="1" x="99"/>
-        <item m="1" x="93"/>
-        <item m="1" x="19"/>
-        <item m="1" x="94"/>
-        <item m="1" x="20"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="21"/>
-        <item m="1" x="87"/>
-        <item m="1" x="13"/>
-        <item m="1" x="81"/>
-        <item m="1" x="95"/>
-        <item m="1" x="84"/>
-        <item m="1" x="100"/>
+        <item m="1" x="25"/>
         <item m="1" x="30"/>
-        <item m="1" x="79"/>
-        <item m="1" x="12"/>
-        <item m="1" x="68"/>
-        <item m="1" x="34"/>
-        <item m="1" x="22"/>
-        <item m="1" x="63"/>
-        <item m="1" x="47"/>
-        <item m="1" x="31"/>
-        <item m="1" x="55"/>
-        <item m="1" x="82"/>
-        <item m="1" x="101"/>
-        <item m="1" x="90"/>
-        <item m="1" x="8"/>
-        <item m="1" x="15"/>
-        <item m="1" x="9"/>
-        <item m="1" x="105"/>
-        <item m="1" x="4"/>
-        <item m="1" x="35"/>
-        <item m="1" x="51"/>
-        <item m="1" x="2"/>
-        <item m="1" x="42"/>
-        <item m="1" x="70"/>
-        <item m="1" x="3"/>
-        <item m="1" x="26"/>
-        <item m="1" x="86"/>
-        <item m="1" x="69"/>
-        <item m="1" x="102"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
@@ -4149,289 +3874,292 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="283">
+      <items count="286">
+        <item m="1" x="224"/>
+        <item m="1" x="121"/>
+        <item m="1" x="258"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="150"/>
+        <item m="1" x="271"/>
+        <item m="1" x="61"/>
+        <item m="1" x="154"/>
+        <item m="1" x="200"/>
+        <item m="1" x="259"/>
+        <item m="1" x="116"/>
+        <item m="1" x="269"/>
+        <item m="1" x="125"/>
+        <item m="1" x="275"/>
+        <item m="1" x="192"/>
+        <item m="1" x="226"/>
+        <item m="1" x="135"/>
+        <item m="1" x="279"/>
+        <item m="1" x="249"/>
+        <item m="1" x="160"/>
+        <item m="1" x="53"/>
+        <item m="1" x="89"/>
+        <item m="1" x="248"/>
+        <item m="1" x="110"/>
+        <item m="1" x="56"/>
+        <item m="1" x="181"/>
+        <item m="1" x="172"/>
+        <item m="1" x="93"/>
+        <item m="1" x="255"/>
+        <item m="1" x="195"/>
+        <item m="1" x="44"/>
+        <item m="1" x="262"/>
+        <item m="1" x="14"/>
+        <item m="1" x="22"/>
+        <item m="1" x="45"/>
+        <item m="1" x="103"/>
+        <item m="1" x="235"/>
+        <item m="1" x="131"/>
+        <item m="1" x="28"/>
+        <item m="1" x="176"/>
+        <item m="1" x="97"/>
+        <item m="1" x="147"/>
+        <item m="1" x="148"/>
+        <item m="1" x="211"/>
+        <item m="1" x="242"/>
+        <item m="1" x="67"/>
+        <item m="1" x="40"/>
+        <item m="1" x="261"/>
+        <item m="1" x="19"/>
+        <item m="1" x="246"/>
+        <item m="1" x="119"/>
+        <item m="1" x="49"/>
+        <item m="1" x="114"/>
+        <item m="1" x="281"/>
+        <item m="1" x="153"/>
+        <item m="1" x="95"/>
+        <item m="1" x="156"/>
+        <item m="1" x="8"/>
+        <item m="1" x="79"/>
+        <item m="1" x="37"/>
+        <item m="1" x="55"/>
+        <item m="1" x="134"/>
+        <item m="1" x="257"/>
+        <item m="1" x="268"/>
+        <item m="1" x="152"/>
+        <item m="1" x="73"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="27"/>
+        <item m="1" x="51"/>
+        <item m="1" x="112"/>
+        <item m="1" x="78"/>
+        <item m="1" x="83"/>
+        <item m="1" x="42"/>
+        <item m="1" x="232"/>
+        <item m="1" x="199"/>
+        <item m="1" x="260"/>
+        <item m="1" x="149"/>
+        <item m="1" x="143"/>
+        <item m="1" x="201"/>
+        <item m="1" x="132"/>
+        <item m="1" x="141"/>
+        <item m="1" x="138"/>
+        <item m="1" x="216"/>
+        <item m="1" x="250"/>
+        <item m="1" x="54"/>
+        <item m="1" x="77"/>
+        <item m="1" x="102"/>
+        <item m="1" x="267"/>
+        <item m="1" x="215"/>
+        <item m="1" x="274"/>
+        <item m="1" x="180"/>
+        <item m="1" x="186"/>
+        <item m="1" x="162"/>
+        <item m="1" x="163"/>
+        <item m="1" x="165"/>
+        <item m="1" x="208"/>
+        <item m="1" x="118"/>
+        <item m="1" x="9"/>
+        <item m="1" x="227"/>
+        <item m="1" x="39"/>
+        <item m="1" x="100"/>
+        <item m="1" x="34"/>
+        <item m="1" x="24"/>
+        <item m="1" x="209"/>
+        <item m="1" x="139"/>
+        <item m="1" x="41"/>
+        <item m="1" x="99"/>
+        <item m="1" x="155"/>
+        <item m="1" x="47"/>
+        <item m="1" x="59"/>
+        <item m="1" x="21"/>
+        <item m="1" x="273"/>
+        <item m="1" x="206"/>
+        <item m="1" x="231"/>
+        <item m="1" x="167"/>
+        <item m="1" x="179"/>
+        <item m="1" x="263"/>
+        <item m="1" x="177"/>
+        <item m="1" x="218"/>
+        <item m="1" x="68"/>
+        <item m="1" x="204"/>
+        <item m="1" x="170"/>
+        <item m="1" x="205"/>
         <item m="1" x="236"/>
+        <item m="1" x="101"/>
+        <item m="1" x="16"/>
+        <item m="1" x="230"/>
+        <item m="1" x="109"/>
+        <item m="1" x="98"/>
+        <item m="1" x="80"/>
+        <item m="1" x="196"/>
+        <item m="1" x="107"/>
+        <item m="1" x="189"/>
+        <item m="1" x="137"/>
         <item m="1" x="76"/>
+        <item m="1" x="57"/>
+        <item m="1" x="63"/>
+        <item m="1" x="233"/>
+        <item m="1" x="270"/>
+        <item m="1" x="272"/>
+        <item m="1" x="20"/>
+        <item m="1" x="158"/>
+        <item m="1" x="251"/>
+        <item m="1" x="92"/>
+        <item m="1" x="35"/>
+        <item m="1" x="128"/>
+        <item m="1" x="253"/>
+        <item m="1" x="225"/>
+        <item m="1" x="17"/>
+        <item m="1" x="284"/>
         <item m="1" x="23"/>
+        <item m="1" x="228"/>
+        <item m="1" x="75"/>
+        <item m="1" x="203"/>
+        <item m="1" x="64"/>
+        <item m="1" x="239"/>
+        <item m="1" x="127"/>
+        <item m="1" x="96"/>
+        <item m="1" x="213"/>
+        <item m="1" x="25"/>
+        <item m="1" x="32"/>
+        <item m="1" x="214"/>
+        <item m="1" x="48"/>
+        <item m="1" x="207"/>
+        <item m="1" x="111"/>
+        <item m="1" x="133"/>
+        <item m="1" x="157"/>
+        <item m="1" x="194"/>
+        <item m="1" x="234"/>
+        <item m="1" x="33"/>
+        <item m="1" x="90"/>
+        <item m="1" x="191"/>
+        <item m="1" x="29"/>
+        <item m="1" x="60"/>
+        <item m="1" x="140"/>
+        <item m="1" x="136"/>
+        <item m="1" x="26"/>
+        <item m="1" x="115"/>
+        <item m="1" x="184"/>
+        <item m="1" x="126"/>
+        <item m="1" x="277"/>
+        <item m="1" x="113"/>
+        <item m="1" x="238"/>
+        <item m="1" x="252"/>
+        <item m="1" x="66"/>
+        <item m="1" x="256"/>
+        <item m="1" x="183"/>
+        <item m="1" x="212"/>
+        <item m="1" x="174"/>
+        <item m="1" x="244"/>
+        <item m="1" x="210"/>
+        <item m="1" x="30"/>
+        <item m="1" x="88"/>
+        <item m="1" x="7"/>
+        <item m="1" x="280"/>
+        <item m="1" x="144"/>
+        <item m="1" x="58"/>
+        <item m="1" x="166"/>
+        <item m="1" x="71"/>
+        <item m="1" x="264"/>
+        <item m="1" x="146"/>
+        <item m="1" x="247"/>
+        <item m="1" x="36"/>
+        <item m="1" x="72"/>
+        <item m="1" x="276"/>
+        <item m="1" x="241"/>
+        <item m="1" x="220"/>
+        <item m="1" x="219"/>
+        <item m="1" x="69"/>
+        <item m="1" x="105"/>
+        <item m="1" x="254"/>
+        <item m="1" x="108"/>
+        <item m="1" x="265"/>
+        <item m="1" x="193"/>
+        <item m="1" x="202"/>
+        <item m="1" x="12"/>
+        <item m="1" x="104"/>
+        <item m="1" x="11"/>
+        <item m="1" x="46"/>
+        <item m="1" x="159"/>
+        <item m="1" x="175"/>
+        <item m="1" x="266"/>
+        <item m="1" x="168"/>
+        <item m="1" x="31"/>
+        <item m="1" x="188"/>
+        <item m="1" x="197"/>
+        <item m="1" x="117"/>
+        <item m="1" x="142"/>
+        <item m="1" x="161"/>
+        <item m="1" x="65"/>
+        <item m="1" x="10"/>
+        <item m="1" x="145"/>
+        <item m="1" x="237"/>
+        <item m="1" x="38"/>
+        <item m="1" x="122"/>
+        <item m="1" x="130"/>
+        <item m="1" x="62"/>
+        <item m="1" x="173"/>
+        <item m="1" x="229"/>
+        <item m="1" x="18"/>
+        <item m="1" x="91"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="245"/>
+        <item m="1" x="15"/>
+        <item m="1" x="190"/>
+        <item m="1" x="240"/>
+        <item m="1" x="187"/>
+        <item m="1" x="13"/>
+        <item m="1" x="82"/>
+        <item m="1" x="182"/>
+        <item m="1" x="198"/>
         <item m="1" x="217"/>
-        <item m="1" x="64"/>
-        <item m="1" x="272"/>
-        <item m="1" x="14"/>
-        <item m="1" x="227"/>
-        <item m="1" x="135"/>
-        <item m="1" x="17"/>
-        <item m="1" x="101"/>
-        <item m="1" x="173"/>
-        <item m="1" x="233"/>
-        <item m="1" x="45"/>
-        <item m="1" x="202"/>
-        <item m="1" x="261"/>
+        <item m="1" x="283"/>
+        <item m="1" x="151"/>
+        <item m="1" x="185"/>
+        <item m="1" x="178"/>
+        <item m="1" x="164"/>
+        <item m="1" x="222"/>
+        <item m="1" x="81"/>
+        <item m="1" x="43"/>
+        <item m="1" x="169"/>
+        <item m="1" x="278"/>
+        <item m="1" x="120"/>
+        <item m="1" x="171"/>
+        <item m="1" x="94"/>
+        <item m="1" x="223"/>
+        <item m="1" x="70"/>
+        <item m="1" x="221"/>
         <item m="1" x="106"/>
-        <item m="1" x="52"/>
-        <item m="1" x="254"/>
-        <item m="1" x="146"/>
-        <item m="1" x="199"/>
-        <item m="1" x="279"/>
-        <item m="1" x="68"/>
-        <item m="1" x="182"/>
-        <item m="1" x="133"/>
-        <item m="1" x="235"/>
-        <item m="1" x="71"/>
-        <item m="1" x="277"/>
-        <item m="1" x="275"/>
-        <item m="1" x="18"/>
-        <item m="1" x="6"/>
-        <item m="1" x="186"/>
-        <item m="1" x="36"/>
-        <item m="1" x="197"/>
-        <item m="1" x="239"/>
-        <item m="1" x="102"/>
-        <item m="1" x="55"/>
-        <item m="1" x="66"/>
-        <item m="1" x="245"/>
-        <item m="1" x="164"/>
-        <item m="1" x="246"/>
-        <item m="1" x="223"/>
-        <item m="1" x="83"/>
-        <item m="1" x="105"/>
-        <item m="1" x="44"/>
-        <item m="1" x="177"/>
-        <item m="1" x="181"/>
-        <item m="1" x="278"/>
-        <item m="1" x="224"/>
-        <item m="1" x="281"/>
-        <item m="1" x="219"/>
-        <item m="1" x="168"/>
-        <item m="1" x="213"/>
-        <item m="1" x="256"/>
-        <item m="1" x="206"/>
-        <item m="1" x="242"/>
-        <item m="1" x="237"/>
-        <item m="1" x="53"/>
-        <item m="1" x="174"/>
-        <item m="1" x="210"/>
-        <item m="1" x="110"/>
-        <item m="1" x="170"/>
-        <item m="1" x="193"/>
-        <item m="1" x="51"/>
-        <item m="1" x="21"/>
-        <item m="1" x="262"/>
-        <item m="1" x="8"/>
-        <item m="1" x="251"/>
-        <item m="1" x="183"/>
-        <item m="1" x="113"/>
-        <item m="1" x="29"/>
-        <item m="1" x="209"/>
-        <item m="1" x="77"/>
-        <item m="1" x="156"/>
-        <item m="1" x="80"/>
-        <item m="1" x="75"/>
-        <item m="1" x="48"/>
-        <item m="1" x="93"/>
-        <item m="1" x="58"/>
-        <item m="1" x="82"/>
-        <item m="1" x="35"/>
-        <item m="1" x="60"/>
-        <item m="1" x="33"/>
-        <item m="1" x="10"/>
-        <item m="1" x="70"/>
-        <item m="1" x="134"/>
-        <item m="1" x="194"/>
-        <item m="1" x="67"/>
-        <item m="1" x="249"/>
-        <item m="1" x="9"/>
-        <item m="1" x="120"/>
-        <item m="1" x="59"/>
-        <item m="1" x="255"/>
-        <item m="1" x="96"/>
-        <item m="1" x="276"/>
-        <item m="1" x="16"/>
-        <item m="1" x="28"/>
-        <item m="1" x="24"/>
-        <item m="1" x="49"/>
-        <item m="1" x="270"/>
-        <item m="1" x="61"/>
-        <item m="1" x="163"/>
-        <item m="1" x="264"/>
-        <item m="1" x="40"/>
-        <item m="1" x="159"/>
-        <item m="1" x="214"/>
-        <item m="1" x="138"/>
-        <item m="1" x="32"/>
-        <item m="1" x="208"/>
-        <item m="1" x="34"/>
-        <item m="1" x="274"/>
-        <item m="1" x="47"/>
-        <item m="1" x="198"/>
-        <item m="1" x="204"/>
-        <item m="1" x="230"/>
-        <item m="1" x="172"/>
-        <item m="1" x="22"/>
-        <item m="1" x="260"/>
-        <item m="1" x="250"/>
-        <item m="1" x="178"/>
-        <item m="1" x="56"/>
-        <item m="1" x="244"/>
-        <item m="1" x="222"/>
-        <item m="1" x="238"/>
-        <item m="1" x="78"/>
-        <item m="1" x="234"/>
-        <item m="1" x="160"/>
-        <item m="1" x="26"/>
+        <item m="1" x="124"/>
+        <item m="1" x="243"/>
         <item m="1" x="129"/>
-        <item m="1" x="127"/>
-        <item m="1" x="115"/>
-        <item m="1" x="97"/>
-        <item m="1" x="95"/>
-        <item m="1" x="259"/>
-        <item m="1" x="221"/>
-        <item m="1" x="128"/>
-        <item m="1" x="228"/>
-        <item m="1" x="267"/>
-        <item m="1" x="92"/>
-        <item m="1" x="142"/>
-        <item m="1" x="30"/>
-        <item m="1" x="280"/>
-        <item m="1" x="195"/>
-        <item m="1" x="152"/>
-        <item m="1" x="126"/>
-        <item m="1" x="179"/>
-        <item m="1" x="86"/>
-        <item m="1" x="104"/>
-        <item m="1" x="84"/>
-        <item m="1" x="184"/>
-        <item m="1" x="248"/>
-        <item m="1" x="124"/>
-        <item m="1" x="225"/>
-        <item m="1" x="13"/>
-        <item m="1" x="268"/>
-        <item m="1" x="240"/>
-        <item m="1" x="111"/>
-        <item m="1" x="72"/>
-        <item m="1" x="15"/>
-        <item m="1" x="19"/>
-        <item m="1" x="192"/>
-        <item m="1" x="144"/>
-        <item m="1" x="121"/>
-        <item m="1" x="200"/>
-        <item m="1" x="196"/>
-        <item m="1" x="212"/>
-        <item m="1" x="155"/>
-        <item m="1" x="103"/>
-        <item m="1" x="42"/>
-        <item m="1" x="41"/>
-        <item m="1" x="131"/>
-        <item m="1" x="130"/>
-        <item m="1" x="165"/>
-        <item m="1" x="43"/>
-        <item m="1" x="231"/>
-        <item m="1" x="109"/>
-        <item m="1" x="148"/>
-        <item m="1" x="171"/>
-        <item m="1" x="189"/>
-        <item m="1" x="207"/>
-        <item m="1" x="46"/>
-        <item m="1" x="25"/>
-        <item m="1" x="215"/>
-        <item m="1" x="154"/>
-        <item m="1" x="125"/>
-        <item m="1" x="136"/>
-        <item m="1" x="232"/>
-        <item m="1" x="98"/>
-        <item m="1" x="180"/>
-        <item m="1" x="50"/>
-        <item m="1" x="226"/>
-        <item m="1" x="122"/>
-        <item m="1" x="108"/>
-        <item m="1" x="141"/>
-        <item m="1" x="187"/>
-        <item m="1" x="11"/>
-        <item m="1" x="190"/>
-        <item m="1" x="88"/>
-        <item m="1" x="211"/>
-        <item m="1" x="257"/>
-        <item m="1" x="119"/>
-        <item m="1" x="116"/>
-        <item m="1" x="37"/>
-        <item m="1" x="69"/>
-        <item m="1" x="90"/>
-        <item m="1" x="252"/>
-        <item m="1" x="63"/>
-        <item m="1" x="205"/>
-        <item m="1" x="263"/>
-        <item m="1" x="39"/>
-        <item m="1" x="266"/>
-        <item m="1" x="87"/>
-        <item m="1" x="74"/>
-        <item m="1" x="99"/>
-        <item m="1" x="27"/>
-        <item m="1" x="162"/>
-        <item m="1" x="218"/>
-        <item m="1" x="201"/>
-        <item m="1" x="258"/>
-        <item m="1" x="123"/>
-        <item m="1" x="241"/>
-        <item m="1" x="191"/>
-        <item m="1" x="271"/>
-        <item m="1" x="54"/>
-        <item m="1" x="229"/>
-        <item m="1" x="117"/>
-        <item m="1" x="62"/>
-        <item m="1" x="220"/>
-        <item m="1" x="150"/>
-        <item m="1" x="243"/>
-        <item m="1" x="73"/>
-        <item m="1" x="145"/>
-        <item m="1" x="114"/>
-        <item m="1" x="94"/>
-        <item m="1" x="137"/>
-        <item m="1" x="38"/>
-        <item m="1" x="161"/>
-        <item m="1" x="157"/>
-        <item m="1" x="151"/>
-        <item m="1" x="7"/>
-        <item m="1" x="153"/>
-        <item m="1" x="20"/>
-        <item m="1" x="166"/>
-        <item m="1" x="147"/>
-        <item m="1" x="158"/>
-        <item m="1" x="167"/>
-        <item m="1" x="175"/>
-        <item m="1" x="112"/>
-        <item m="1" x="143"/>
-        <item m="1" x="140"/>
-        <item m="1" x="139"/>
-        <item m="1" x="273"/>
-        <item m="1" x="265"/>
-        <item m="1" x="269"/>
-        <item m="1" x="149"/>
-        <item m="1" x="185"/>
-        <item m="1" x="176"/>
-        <item m="1" x="57"/>
-        <item m="1" x="12"/>
-        <item m="1" x="89"/>
-        <item m="1" x="203"/>
-        <item m="1" x="85"/>
-        <item m="1" x="91"/>
-        <item m="1" x="216"/>
-        <item m="1" x="31"/>
-        <item m="1" x="65"/>
-        <item m="1" x="81"/>
-        <item m="1" x="107"/>
-        <item m="1" x="132"/>
-        <item m="1" x="169"/>
-        <item m="1" x="253"/>
-        <item m="1" x="247"/>
-        <item m="1" x="118"/>
-        <item m="1" x="79"/>
-        <item m="1" x="188"/>
-        <item m="1" x="100"/>
+        <item m="1" x="282"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4447,7 +4175,7 @@
     <field x="4"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x v="2"/>
     </i>
@@ -4458,13 +4186,16 @@
       <x v="104"/>
     </i>
     <i r="3">
-      <x v="276"/>
+      <x v="278"/>
     </i>
     <i r="3">
-      <x v="277"/>
+      <x v="282"/>
     </i>
     <i r="3">
-      <x v="278"/>
+      <x v="283"/>
+    </i>
+    <i r="3">
+      <x v="284"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -4505,7 +4236,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="44">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4514,7 +4245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4523,7 +4254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4532,7 +4263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4555,8 +4286,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4573,273 +4304,276 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="267">
+      <items count="270">
+        <item m="1" x="224"/>
+        <item m="1" x="75"/>
+        <item m="1" x="21"/>
+        <item m="1" x="205"/>
+        <item m="1" x="63"/>
+        <item m="1" x="259"/>
+        <item m="1" x="13"/>
+        <item m="1" x="215"/>
+        <item m="1" x="132"/>
+        <item m="1" x="16"/>
+        <item m="1" x="98"/>
+        <item m="1" x="162"/>
         <item m="1" x="221"/>
+        <item m="1" x="44"/>
+        <item m="1" x="191"/>
+        <item m="1" x="249"/>
+        <item m="1" x="104"/>
+        <item m="1" x="51"/>
+        <item m="1" x="242"/>
+        <item m="1" x="142"/>
+        <item m="1" x="188"/>
+        <item m="1" x="266"/>
+        <item m="1" x="67"/>
+        <item m="1" x="171"/>
+        <item m="1" x="130"/>
+        <item m="1" x="223"/>
+        <item m="1" x="70"/>
+        <item m="1" x="264"/>
+        <item m="1" x="262"/>
+        <item m="1" x="17"/>
+        <item m="1" x="7"/>
+        <item m="1" x="175"/>
+        <item m="1" x="35"/>
+        <item m="1" x="186"/>
+        <item m="1" x="227"/>
+        <item m="1" x="99"/>
+        <item m="1" x="54"/>
+        <item m="1" x="65"/>
+        <item m="1" x="233"/>
+        <item m="1" x="155"/>
+        <item m="1" x="234"/>
+        <item m="1" x="211"/>
+        <item m="1" x="82"/>
+        <item m="1" x="103"/>
+        <item m="1" x="43"/>
+        <item m="1" x="166"/>
+        <item m="1" x="170"/>
+        <item m="1" x="265"/>
+        <item m="1" x="212"/>
+        <item m="1" x="268"/>
+        <item m="1" x="207"/>
+        <item m="1" x="157"/>
+        <item m="1" x="202"/>
+        <item m="1" x="244"/>
+        <item m="1" x="195"/>
+        <item m="1" x="230"/>
+        <item m="1" x="225"/>
+        <item m="1" x="52"/>
+        <item m="1" x="164"/>
+        <item m="1" x="199"/>
+        <item m="1" x="108"/>
+        <item m="1" x="159"/>
+        <item m="1" x="182"/>
+        <item m="1" x="50"/>
+        <item m="1" x="19"/>
+        <item m="1" x="250"/>
+        <item m="1" x="8"/>
+        <item m="1" x="239"/>
+        <item m="1" x="172"/>
+        <item m="1" x="110"/>
+        <item m="1" x="28"/>
+        <item m="1" x="198"/>
+        <item m="1" x="76"/>
+        <item m="1" x="149"/>
+        <item m="1" x="79"/>
+        <item m="1" x="74"/>
+        <item m="1" x="47"/>
+        <item m="1" x="91"/>
+        <item m="1" x="57"/>
+        <item m="1" x="81"/>
+        <item m="1" x="34"/>
+        <item m="1" x="59"/>
+        <item m="1" x="32"/>
+        <item m="1" x="10"/>
+        <item m="1" x="69"/>
+        <item m="1" x="131"/>
+        <item m="1" x="183"/>
+        <item m="1" x="66"/>
+        <item m="1" x="237"/>
+        <item m="1" x="9"/>
+        <item m="1" x="117"/>
+        <item m="1" x="58"/>
+        <item m="1" x="243"/>
+        <item m="1" x="94"/>
+        <item m="1" x="263"/>
+        <item m="1" x="15"/>
+        <item m="1" x="26"/>
+        <item m="1" x="22"/>
+        <item m="1" x="48"/>
+        <item m="1" x="257"/>
+        <item m="1" x="60"/>
+        <item m="1" x="154"/>
+        <item m="1" x="252"/>
+        <item m="1" x="39"/>
+        <item m="1" x="150"/>
+        <item m="1" x="203"/>
+        <item m="1" x="135"/>
+        <item m="1" x="31"/>
+        <item m="1" x="197"/>
+        <item m="1" x="33"/>
+        <item m="1" x="261"/>
+        <item m="1" x="46"/>
+        <item m="1" x="187"/>
+        <item m="1" x="193"/>
+        <item m="1" x="218"/>
+        <item m="1" x="161"/>
+        <item m="1" x="20"/>
+        <item m="1" x="248"/>
+        <item m="1" x="238"/>
+        <item m="1" x="167"/>
+        <item m="1" x="55"/>
+        <item m="1" x="232"/>
+        <item m="1" x="210"/>
+        <item m="1" x="226"/>
+        <item m="1" x="77"/>
+        <item m="1" x="222"/>
+        <item m="1" x="151"/>
+        <item m="1" x="24"/>
+        <item m="1" x="126"/>
+        <item m="1" x="124"/>
+        <item m="1" x="112"/>
+        <item m="1" x="95"/>
+        <item m="1" x="93"/>
+        <item m="1" x="247"/>
+        <item m="1" x="209"/>
+        <item m="1" x="125"/>
+        <item m="1" x="216"/>
+        <item m="1" x="254"/>
+        <item m="1" x="90"/>
+        <item m="1" x="138"/>
+        <item m="1" x="29"/>
+        <item m="1" x="267"/>
+        <item m="1" x="184"/>
+        <item m="1" x="146"/>
+        <item m="1" x="123"/>
+        <item m="1" x="168"/>
+        <item m="1" x="85"/>
+        <item m="1" x="101"/>
+        <item m="1" x="83"/>
+        <item m="1" x="173"/>
+        <item m="1" x="236"/>
+        <item m="1" x="121"/>
+        <item m="1" x="213"/>
+        <item m="1" x="12"/>
+        <item m="1" x="255"/>
+        <item m="1" x="228"/>
+        <item m="1" x="109"/>
+        <item m="1" x="71"/>
+        <item m="1" x="14"/>
+        <item m="1" x="18"/>
+        <item m="1" x="181"/>
+        <item m="1" x="140"/>
+        <item m="1" x="118"/>
+        <item m="1" x="189"/>
+        <item m="1" x="185"/>
+        <item m="1" x="201"/>
+        <item m="1" x="148"/>
+        <item m="1" x="100"/>
+        <item m="1" x="41"/>
+        <item m="1" x="40"/>
+        <item m="1" x="128"/>
+        <item m="1" x="127"/>
+        <item m="1" x="156"/>
+        <item m="1" x="42"/>
+        <item m="1" x="219"/>
+        <item m="1" x="107"/>
+        <item m="1" x="143"/>
+        <item m="1" x="160"/>
+        <item m="1" x="178"/>
+        <item m="1" x="196"/>
+        <item m="1" x="45"/>
+        <item m="1" x="23"/>
+        <item m="1" x="204"/>
+        <item m="1" x="147"/>
+        <item m="1" x="122"/>
+        <item m="1" x="133"/>
+        <item m="1" x="220"/>
+        <item m="1" x="96"/>
+        <item m="1" x="169"/>
+        <item m="1" x="49"/>
+        <item m="1" x="214"/>
+        <item m="1" x="119"/>
+        <item m="1" x="106"/>
+        <item m="1" x="137"/>
+        <item m="1" x="176"/>
+        <item m="1" x="200"/>
+        <item m="1" x="179"/>
+        <item m="1" x="245"/>
+        <item m="1" x="116"/>
+        <item m="1" x="190"/>
+        <item m="1" x="113"/>
+        <item m="1" x="36"/>
+        <item m="1" x="246"/>
+        <item m="1" x="88"/>
+        <item m="1" x="120"/>
+        <item m="1" x="68"/>
+        <item m="1" x="229"/>
+        <item m="1" x="180"/>
+        <item m="1" x="240"/>
+        <item m="1" x="62"/>
+        <item m="1" x="194"/>
+        <item m="1" x="251"/>
+        <item m="1" x="38"/>
+        <item m="1" x="253"/>
+        <item m="1" x="86"/>
         <item m="1" x="73"/>
-        <item m="1" x="20"/>
-        <item m="1" x="202"/>
+        <item m="1" x="97"/>
+        <item m="1" x="25"/>
+        <item m="1" x="153"/>
+        <item m="1" x="206"/>
+        <item m="1" x="145"/>
+        <item m="1" x="102"/>
+        <item m="1" x="258"/>
+        <item m="1" x="53"/>
+        <item m="1" x="217"/>
+        <item m="1" x="89"/>
+        <item m="1" x="114"/>
+        <item m="1" x="208"/>
         <item m="1" x="61"/>
+        <item m="1" x="144"/>
+        <item m="1" x="231"/>
+        <item m="1" x="72"/>
+        <item m="1" x="141"/>
+        <item m="1" x="111"/>
+        <item m="1" x="235"/>
+        <item m="1" x="241"/>
+        <item m="1" x="87"/>
+        <item m="1" x="92"/>
+        <item m="1" x="37"/>
+        <item m="1" x="78"/>
+        <item m="1" x="115"/>
+        <item m="1" x="152"/>
+        <item m="1" x="165"/>
+        <item m="1" x="174"/>
+        <item m="1" x="30"/>
+        <item m="1" x="84"/>
+        <item m="1" x="192"/>
+        <item m="1" x="134"/>
+        <item m="1" x="64"/>
+        <item m="1" x="80"/>
+        <item m="1" x="177"/>
+        <item m="1" x="158"/>
+        <item m="1" x="105"/>
+        <item m="1" x="139"/>
+        <item m="1" x="56"/>
         <item m="1" x="256"/>
-        <item m="1" x="12"/>
-        <item m="1" x="212"/>
-        <item m="1" x="130"/>
-        <item m="1" x="15"/>
-        <item m="1" x="96"/>
-        <item m="1" x="160"/>
-        <item m="1" x="218"/>
-        <item m="1" x="42"/>
-        <item m="1" x="188"/>
-        <item m="1" x="246"/>
-        <item m="1" x="102"/>
-        <item m="1" x="49"/>
-        <item m="1" x="239"/>
-        <item m="1" x="140"/>
-        <item m="1" x="185"/>
-        <item m="1" x="263"/>
-        <item m="1" x="65"/>
-        <item m="1" x="168"/>
-        <item m="1" x="128"/>
-        <item m="1" x="220"/>
-        <item m="1" x="68"/>
-        <item m="1" x="261"/>
-        <item m="1" x="259"/>
-        <item m="1" x="16"/>
-        <item m="1" x="6"/>
-        <item m="1" x="172"/>
-        <item m="1" x="33"/>
-        <item m="1" x="183"/>
-        <item m="1" x="224"/>
-        <item m="1" x="97"/>
-        <item m="1" x="52"/>
-        <item m="1" x="63"/>
-        <item m="1" x="230"/>
-        <item m="1" x="153"/>
-        <item m="1" x="231"/>
-        <item m="1" x="208"/>
-        <item m="1" x="80"/>
-        <item m="1" x="101"/>
-        <item m="1" x="41"/>
+        <item m="1" x="260"/>
+        <item m="1" x="129"/>
+        <item m="1" x="11"/>
+        <item m="1" x="136"/>
         <item m="1" x="163"/>
-        <item m="1" x="167"/>
-        <item m="1" x="262"/>
-        <item m="1" x="209"/>
-        <item m="1" x="265"/>
-        <item m="1" x="204"/>
-        <item m="1" x="155"/>
-        <item m="1" x="199"/>
-        <item m="1" x="241"/>
-        <item m="1" x="192"/>
-        <item m="1" x="227"/>
-        <item m="1" x="222"/>
-        <item m="1" x="50"/>
-        <item m="1" x="161"/>
-        <item m="1" x="196"/>
-        <item m="1" x="106"/>
-        <item m="1" x="157"/>
-        <item m="1" x="179"/>
-        <item m="1" x="48"/>
-        <item m="1" x="18"/>
-        <item m="1" x="247"/>
-        <item m="1" x="7"/>
-        <item m="1" x="236"/>
-        <item m="1" x="169"/>
-        <item m="1" x="108"/>
-        <item m="1" x="26"/>
-        <item m="1" x="195"/>
-        <item m="1" x="74"/>
-        <item m="1" x="147"/>
-        <item m="1" x="77"/>
-        <item m="1" x="72"/>
-        <item m="1" x="45"/>
-        <item m="1" x="89"/>
-        <item m="1" x="55"/>
-        <item m="1" x="79"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="30"/>
-        <item m="1" x="9"/>
-        <item m="1" x="67"/>
-        <item m="1" x="129"/>
-        <item m="1" x="180"/>
-        <item m="1" x="64"/>
-        <item m="1" x="234"/>
-        <item m="1" x="8"/>
-        <item m="1" x="115"/>
-        <item m="1" x="56"/>
-        <item m="1" x="240"/>
-        <item m="1" x="92"/>
-        <item m="1" x="260"/>
-        <item m="1" x="14"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="46"/>
-        <item m="1" x="254"/>
-        <item m="1" x="58"/>
-        <item m="1" x="152"/>
-        <item m="1" x="249"/>
-        <item m="1" x="37"/>
-        <item m="1" x="148"/>
-        <item m="1" x="200"/>
-        <item m="1" x="133"/>
-        <item m="1" x="29"/>
-        <item m="1" x="194"/>
-        <item m="1" x="31"/>
-        <item m="1" x="258"/>
-        <item m="1" x="44"/>
-        <item m="1" x="184"/>
-        <item m="1" x="190"/>
-        <item m="1" x="215"/>
-        <item m="1" x="159"/>
-        <item m="1" x="19"/>
-        <item m="1" x="245"/>
-        <item m="1" x="235"/>
-        <item m="1" x="164"/>
-        <item m="1" x="53"/>
-        <item m="1" x="229"/>
-        <item m="1" x="207"/>
-        <item m="1" x="223"/>
-        <item m="1" x="75"/>
-        <item m="1" x="219"/>
-        <item m="1" x="149"/>
-        <item m="1" x="23"/>
-        <item m="1" x="124"/>
-        <item m="1" x="122"/>
-        <item m="1" x="110"/>
-        <item m="1" x="93"/>
-        <item m="1" x="91"/>
-        <item m="1" x="244"/>
-        <item m="1" x="206"/>
-        <item m="1" x="123"/>
-        <item m="1" x="213"/>
-        <item m="1" x="251"/>
-        <item m="1" x="88"/>
-        <item m="1" x="136"/>
         <item m="1" x="27"/>
-        <item m="1" x="264"/>
-        <item m="1" x="181"/>
-        <item m="1" x="144"/>
-        <item m="1" x="121"/>
-        <item m="1" x="165"/>
-        <item m="1" x="83"/>
-        <item m="1" x="99"/>
-        <item m="1" x="81"/>
-        <item m="1" x="170"/>
-        <item m="1" x="233"/>
-        <item m="1" x="119"/>
-        <item m="1" x="210"/>
-        <item m="1" x="11"/>
-        <item m="1" x="252"/>
-        <item m="1" x="225"/>
-        <item m="1" x="107"/>
-        <item m="1" x="69"/>
-        <item m="1" x="13"/>
-        <item m="1" x="17"/>
-        <item m="1" x="178"/>
-        <item m="1" x="138"/>
-        <item m="1" x="116"/>
-        <item m="1" x="186"/>
-        <item m="1" x="182"/>
-        <item m="1" x="198"/>
-        <item m="1" x="146"/>
-        <item m="1" x="98"/>
-        <item m="1" x="39"/>
-        <item m="1" x="38"/>
-        <item m="1" x="126"/>
-        <item m="1" x="125"/>
-        <item m="1" x="154"/>
-        <item m="1" x="40"/>
-        <item m="1" x="216"/>
-        <item m="1" x="105"/>
-        <item m="1" x="141"/>
-        <item m="1" x="158"/>
-        <item m="1" x="175"/>
-        <item m="1" x="193"/>
-        <item m="1" x="43"/>
-        <item m="1" x="22"/>
-        <item m="1" x="201"/>
-        <item m="1" x="145"/>
-        <item m="1" x="120"/>
-        <item m="1" x="131"/>
-        <item m="1" x="217"/>
-        <item m="1" x="94"/>
-        <item m="1" x="166"/>
-        <item m="1" x="47"/>
-        <item m="1" x="211"/>
-        <item m="1" x="117"/>
-        <item m="1" x="104"/>
-        <item m="1" x="135"/>
-        <item m="1" x="173"/>
-        <item m="1" x="197"/>
-        <item m="1" x="176"/>
-        <item m="1" x="242"/>
-        <item m="1" x="114"/>
-        <item m="1" x="187"/>
-        <item m="1" x="111"/>
-        <item m="1" x="34"/>
-        <item m="1" x="243"/>
-        <item m="1" x="86"/>
-        <item m="1" x="118"/>
-        <item m="1" x="66"/>
-        <item m="1" x="226"/>
-        <item m="1" x="177"/>
-        <item m="1" x="237"/>
-        <item m="1" x="60"/>
-        <item m="1" x="191"/>
-        <item m="1" x="248"/>
-        <item m="1" x="36"/>
-        <item m="1" x="250"/>
-        <item m="1" x="84"/>
-        <item m="1" x="71"/>
-        <item m="1" x="95"/>
-        <item m="1" x="24"/>
-        <item m="1" x="151"/>
-        <item m="1" x="203"/>
-        <item m="1" x="143"/>
-        <item m="1" x="100"/>
-        <item m="1" x="255"/>
-        <item m="1" x="51"/>
-        <item m="1" x="214"/>
-        <item m="1" x="87"/>
-        <item m="1" x="112"/>
-        <item m="1" x="205"/>
-        <item m="1" x="59"/>
-        <item m="1" x="142"/>
-        <item m="1" x="228"/>
-        <item m="1" x="70"/>
-        <item m="1" x="139"/>
-        <item m="1" x="109"/>
-        <item m="1" x="232"/>
-        <item m="1" x="238"/>
-        <item m="1" x="85"/>
-        <item m="1" x="90"/>
-        <item m="1" x="35"/>
-        <item m="1" x="76"/>
-        <item m="1" x="113"/>
-        <item m="1" x="150"/>
-        <item m="1" x="162"/>
-        <item m="1" x="171"/>
-        <item m="1" x="28"/>
-        <item m="1" x="82"/>
-        <item m="1" x="189"/>
-        <item m="1" x="132"/>
-        <item m="1" x="62"/>
-        <item m="1" x="78"/>
-        <item m="1" x="174"/>
-        <item m="1" x="156"/>
-        <item m="1" x="103"/>
-        <item m="1" x="137"/>
-        <item m="1" x="54"/>
-        <item m="1" x="253"/>
-        <item m="1" x="257"/>
-        <item m="1" x="127"/>
-        <item m="1" x="10"/>
-        <item m="1" x="134"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4863,7 +4597,7 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x v="4"/>
     </i>
@@ -4871,13 +4605,16 @@
       <x/>
     </i>
     <i r="2">
-      <x v="260"/>
+      <x v="262"/>
     </i>
     <i r="2">
-      <x v="261"/>
+      <x v="266"/>
     </i>
     <i r="2">
-      <x v="262"/>
+      <x v="267"/>
+    </i>
+    <i r="2">
+      <x v="268"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -5226,10 +4963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:O18"/>
+  <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5316,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -5325,7 +5062,6 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <f>Presupuesto!F6</f>
         <v>42900</v>
       </c>
       <c r="K4" s="1">
@@ -5333,7 +5069,7 @@
         <v>42900</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5356,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -5368,11 +5104,11 @@
         <v>9800</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K9" si="0">I5*J5</f>
+        <f t="shared" ref="K5:K10" si="0">I5*J5</f>
         <v>9800</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5395,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -5411,7 +5147,7 @@
         <v>9000</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5422,19 +5158,19 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -5443,14 +5179,14 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>5200</v>
+        <f t="shared" ref="K7" si="1">I7*J7</f>
+        <v>5000</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5470,10 +5206,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -5482,14 +5218,14 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5509,39 +5245,74 @@
         <v>31</v>
       </c>
       <c r="F9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>360</v>
+        <v>7500</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1">
+        <v>360</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
         <v>16560</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="1">
-        <f>SUBTOTAL(9,K4:K9)</f>
-        <v>90960</v>
-      </c>
-      <c r="L10"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K11"/>
+      <c r="K11" s="1">
+        <f>SUBTOTAL(9,K4:K10)</f>
+        <v>95960</v>
+      </c>
       <c r="L11"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K12"/>
@@ -5571,13 +5342,17 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:O9" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K9">
-    <sortCondition ref="B4:B9"/>
-    <sortCondition ref="D4:D9"/>
-    <sortCondition ref="E4:E9"/>
-    <sortCondition ref="F4:F9"/>
+  <autoFilter ref="A3:O10" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState ref="B4:K10">
+    <sortCondition ref="B4:B10"/>
+    <sortCondition ref="D4:D10"/>
+    <sortCondition ref="E4:E10"/>
+    <sortCondition ref="F4:F10"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5588,15 +5363,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA29A8C-6645-433D-8C8C-D248E8A94AFF}">
-  <dimension ref="A3:D167"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
@@ -5608,6 +5383,11 @@
     <col min="11" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
@@ -5627,32 +5407,32 @@
         <v>17</v>
       </c>
       <c r="B4" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="14">
-        <v>19066.666666666668</v>
+        <v>15550</v>
       </c>
       <c r="D4" s="14">
-        <v>61700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14">
-        <v>9800</v>
+        <v>4500</v>
       </c>
       <c r="D5" s="14">
-        <v>9800</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" s="20">
         <v>1</v>
@@ -5666,69 +5446,101 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="14">
-        <v>4500</v>
+        <v>9800</v>
       </c>
       <c r="D7" s="14">
-        <v>9000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
+      <c r="A8" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="20">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C8" s="14">
-        <v>4353.333333333333</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="14">
-        <v>29260</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="20">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4353.333333333333</v>
+      </c>
+      <c r="D9" s="14">
+        <v>29260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>5200</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D11" s="14">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14">
+        <v>360</v>
+      </c>
+      <c r="D12" s="14">
+        <v>16560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20">
-        <v>52</v>
-      </c>
-      <c r="C9" s="14">
-        <v>11710</v>
-      </c>
-      <c r="D9" s="14">
-        <v>90960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="B13" s="20">
+        <v>53</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10751.428571428571</v>
+      </c>
+      <c r="D13" s="14">
+        <v>95960</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14"/>
@@ -6657,7 +6469,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6666,12 +6478,12 @@
   <dimension ref="A3:D262"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -6696,13 +6508,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="19">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
-        <v>70260</v>
+        <v>75260</v>
       </c>
       <c r="D4" s="1">
-        <v>90960</v>
+        <v>95960</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6710,32 +6522,32 @@
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>57200</v>
+        <v>62200</v>
       </c>
       <c r="D5" s="1">
-        <v>61700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>9800</v>
+        <v>4500</v>
       </c>
       <c r="D6" s="1">
-        <v>9800</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
@@ -6749,91 +6561,101 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>4500</v>
+        <v>9800</v>
       </c>
       <c r="D8" s="1">
-        <v>9000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B10" s="19">
         <v>48</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>13060</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>29260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5200</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="D11" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19">
         <v>46</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>360</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>16560</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1">
-        <v>70260</v>
-      </c>
-      <c r="D13" s="1">
-        <v>90960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="B14" s="19">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <v>75260</v>
+      </c>
+      <c r="D14" s="1">
+        <v>95960</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15"/>
@@ -7839,8 +7661,8 @@
   <dimension ref="A3:D1135"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="1" sqref="A7:A9 A12:A14"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="3" activeRow="12" previousRow="12" click="1" r:id="rId1">
+      <selection activeCell="A13" activeCellId="1" sqref="A7:A10 A13:A15"/>
+      <pivotSelection pane="bottomRight" showHeader="1" dimension="3" activeRow="12" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
             <reference field="6" count="0"/>
@@ -7851,7 +7673,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -7895,13 +7717,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="19">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
-        <v>11710</v>
+        <v>10751.428571428571</v>
       </c>
       <c r="D4" s="1">
-        <v>90960</v>
+        <v>95960</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7909,13 +7731,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>19066.666666666668</v>
+        <v>15550</v>
       </c>
       <c r="D5" s="1">
-        <v>61700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,13 +7745,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>19066.666666666668</v>
+        <v>15550</v>
       </c>
       <c r="D6" s="1">
-        <v>61700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7940,57 +7762,57 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>42900</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="1">
-        <v>42900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>9800</v>
+        <v>42900</v>
       </c>
       <c r="D8" s="1">
-        <v>9800</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9800</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>4500</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="19">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4353.333333333333</v>
-      </c>
-      <c r="D10" s="1">
-        <v>29260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="B11" s="19">
         <v>48</v>
@@ -8003,64 +7825,74 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>35</v>
+      <c r="A12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="19">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>5200</v>
+        <v>4353.333333333333</v>
       </c>
       <c r="D12" s="1">
-        <v>5200</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="D13" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="19">
         <v>46</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>360</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>16560</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11710</v>
-      </c>
-      <c r="D15" s="1">
-        <v>90960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="B16" s="19">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10751.428571428571</v>
+      </c>
+      <c r="D16" s="1">
+        <v>95960</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17"/>
@@ -11686,15 +11518,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26573CB1-B7BB-48C5-A63D-00A53FFCC576}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -11722,16 +11554,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="19">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="19">
-        <v>70260</v>
+        <v>75260</v>
       </c>
       <c r="D4" s="19">
-        <v>90960</v>
+        <v>95960</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11739,13 +11571,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="19">
-        <v>57200</v>
+        <v>62200</v>
       </c>
       <c r="D5" s="19">
-        <v>61700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11756,209 +11588,126 @@
         <v>1</v>
       </c>
       <c r="C6" s="19">
-        <v>42900</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="19">
-        <v>42900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>9800</v>
+        <v>42900</v>
       </c>
       <c r="D7" s="19">
-        <v>9800</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>9800</v>
+      </c>
+      <c r="D8" s="19">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C9" s="19">
         <v>4500</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D9" s="19">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B10" s="19">
         <v>48</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C10" s="19">
         <v>13060</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D10" s="19">
         <v>29260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19">
-        <v>5200</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="19">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="D11" s="19">
-        <v>7500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>7500</v>
+      </c>
+      <c r="D12" s="19">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19">
         <v>46</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C13" s="19">
         <v>360</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>16560</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>52</v>
-      </c>
-      <c r="C13" s="19">
-        <v>70260</v>
-      </c>
-      <c r="D13" s="19">
-        <v>90960</v>
+      <c r="B14" s="19">
+        <v>53</v>
+      </c>
+      <c r="C14" s="19">
+        <v>75260</v>
+      </c>
+      <c r="D14" s="19">
+        <v>95960</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A826BB4F-A727-47F2-A852-585A6C41DB95}">
-  <dimension ref="C1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F1" s="1">
-        <f>D1*E1</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>500</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7400</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <f>SUM(F1:F5)</f>
-        <v>42900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>